--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23202C37-7063-492C-879C-6193B04F1978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67F32C5-8C79-4C97-A47C-E8FB6B0AB4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -317,7 +306,57 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于AR，需要放大多少倍地形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>ARMap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapScale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16.2294464,10.5576706,-14.0073147;-14.315218,10.761445,2.02973604;-10.1369514,10.5576706,17.0835152;8.25763893,13.0576706,11.9056511;1.02015996,17.2006416,19.4979992;-37.6063919,13.0576706,-4.44284821</t>
+  </si>
+  <si>
+    <t>musicList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=ResAudioCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAudio_Music_game1;ResAudio_Music_game2;ResAudio_Music_game3</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Global4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpbTest</t>
+  </si>
+  <si>
+    <t>158.9,-15.57,104.18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Room80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoompk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -471,6 +510,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,10 +526,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -764,16 +803,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
@@ -783,11 +822,12 @@
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="14" style="15" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="11" customWidth="1"/>
+    <col min="14" max="15" width="14" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -806,25 +846,29 @@
       <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N1"/>
-      <c r="O1"/>
+      <c r="O1" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -837,8 +881,9 @@
       <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB1"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -860,10 +905,10 @@
         <v>25</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2"/>
-      <c r="O2"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -876,8 +921,9 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB2"/>
+    </row>
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -896,25 +942,29 @@
       <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N3"/>
-      <c r="O3"/>
+      <c r="O3" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -927,8 +977,9 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB3"/>
+    </row>
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -944,10 +995,10 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4"/>
-      <c r="O4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -960,8 +1011,9 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -995,14 +1047,18 @@
       <c r="K5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="N5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N5"/>
-      <c r="O5"/>
+      <c r="O5" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1015,8 +1071,9 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
         <v>53</v>
@@ -1040,16 +1097,22 @@
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O6" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
         <v>54</v>
@@ -1075,14 +1138,20 @@
       <c r="K7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O7" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="6" t="s">
         <v>59</v>
@@ -1108,14 +1177,20 @@
       <c r="K8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="N8" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O8" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>55</v>
@@ -1141,14 +1216,20 @@
       <c r="K9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="N9" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O9" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>56</v>
@@ -1176,25 +1257,31 @@
       <c r="K10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="N10" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="O10" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>47</v>
@@ -1209,17 +1296,23 @@
       <c r="K11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="N11" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O11" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
@@ -1240,19 +1333,25 @@
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O12" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
@@ -1273,43 +1372,176 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O13" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7">
+        <v>30</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="7">
+        <v>30</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67F32C5-8C79-4C97-A47C-E8FB6B0AB4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16565359-E8C1-4B3F-9E72-F97653458366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -194,10 +194,6 @@
     <t>PlayerTeam</t>
   </si>
   <si>
-    <t>3;true</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>地图场景名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -356,6 +352,79 @@
   </si>
   <si>
     <t>GamePlayBattleLevel_ARRoompk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomPVE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomPVP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomEndlessChallenge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARRoomEndlessChallenge</t>
+  </si>
+  <si>
+    <t>ARRoomPVP</t>
+  </si>
+  <si>
+    <t>Room11</t>
+  </si>
+  <si>
+    <t>Room12</t>
+  </si>
+  <si>
+    <t>Room13</t>
+  </si>
+  <si>
+    <t>Room20</t>
+  </si>
+  <si>
+    <t>Room30</t>
+  </si>
+  <si>
+    <t>Room80</t>
+  </si>
+  <si>
+    <t>Global1</t>
+  </si>
+  <si>
+    <t>Global2</t>
+  </si>
+  <si>
+    <t>Global3</t>
+  </si>
+  <si>
+    <t>Global4</t>
+  </si>
+  <si>
+    <t>ARRoom</t>
+  </si>
+  <si>
+    <t>ARRoompk</t>
+  </si>
+  <si>
+    <t>ARRoomPVE</t>
+  </si>
+  <si>
+    <t>2;true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_RoomTest1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomTest1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -803,16 +872,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
@@ -855,19 +924,19 @@
       </c>
       <c r="J1" s="13"/>
       <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="O1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P1"/>
       <c r="Q1"/>
@@ -954,16 +1023,16 @@
         <v>5</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1045,19 +1114,19 @@
         <v>21</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="O5" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1076,9 +1145,11 @@
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" t="b">
         <v>0</v>
@@ -1090,34 +1161,36 @@
         <v>28</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" s="7">
         <v>1</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" t="b">
         <v>0</v>
@@ -1129,34 +1202,36 @@
         <v>28</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" t="b">
         <v>0</v>
@@ -1168,34 +1243,36 @@
         <v>28</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7">
         <v>1</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" t="b">
         <v>0</v>
@@ -1207,34 +1284,36 @@
         <v>28</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7">
         <v>1</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" t="b">
         <v>0</v>
@@ -1246,36 +1325,38 @@
         <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7">
         <v>1</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" t="b">
         <v>0</v>
@@ -1284,37 +1365,39 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7">
         <v>1</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" t="b">
         <v>1</v>
@@ -1323,37 +1406,39 @@
         <v>100</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="7">
         <v>1</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" t="b">
         <v>1</v>
@@ -1362,37 +1447,39 @@
         <v>100</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7">
         <v>1</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" t="b">
         <v>1</v>
@@ -1401,37 +1488,39 @@
         <v>100</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7">
         <v>1</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" t="b">
         <v>1</v>
@@ -1440,37 +1529,39 @@
         <v>100</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L15" s="7">
         <v>1</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" t="b">
         <v>0</v>
@@ -1482,34 +1573,36 @@
         <v>28</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7">
         <v>30</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" t="b">
         <v>0</v>
@@ -1518,29 +1611,197 @@
         <v>10</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7">
         <v>30</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="7">
+        <v>30</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="7">
+        <v>30</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="7">
+        <v>30</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16565359-E8C1-4B3F-9E72-F97653458366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34EB160-0B26-482B-BDAA-7CBE500EFEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
   <si>
     <t>##var</t>
   </si>
@@ -182,9 +182,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayTowerDefense1</t>
-  </si>
-  <si>
     <t>AllPlayersOneGroup</t>
   </si>
   <si>
@@ -232,24 +229,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayTowerDefense1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense2</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense3</t>
-  </si>
-  <si>
     <t>GamePlayBattleLevel_Global1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayPK1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>32.4790115,0.091531992,25.6486301|5.30363846,0.091531992,25.3778915|-11.3281498,0.091531992,19.4281769|-21.7915726,0.091531992,7.8240509|-23.7534695,0.091531992,-10.6342239|6.51137161,0.091531992,-33.9889832|-4.81398869,0.091531992,-24.2305851|-11.3161564,0.091531992,-15.9668636|-22.8398285,0.091531992,-8.59755516</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -351,10 +334,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayBattleLevel_ARRoompk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>GamePlayBattleLevel_ARRoomPVE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -370,61 +349,134 @@
     <t>ARRoomEndlessChallenge</t>
   </si>
   <si>
+    <t>Room11</t>
+  </si>
+  <si>
+    <t>Room12</t>
+  </si>
+  <si>
+    <t>Room13</t>
+  </si>
+  <si>
+    <t>Global1</t>
+  </si>
+  <si>
+    <t>Global2</t>
+  </si>
+  <si>
+    <t>Global3</t>
+  </si>
+  <si>
+    <t>Global4</t>
+  </si>
+  <si>
+    <t>ARRoom</t>
+  </si>
+  <si>
+    <t>ARRoomPVE</t>
+  </si>
+  <si>
+    <t>2;true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_RoomTest1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomTest1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefensePVE</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Room14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>ARRoomPVP</t>
-  </si>
-  <si>
-    <t>Room11</t>
-  </si>
-  <si>
-    <t>Room12</t>
-  </si>
-  <si>
-    <t>Room13</t>
-  </si>
-  <si>
-    <t>Room20</t>
-  </si>
-  <si>
-    <t>Room30</t>
-  </si>
-  <si>
-    <t>Room80</t>
-  </si>
-  <si>
-    <t>Global1</t>
-  </si>
-  <si>
-    <t>Global2</t>
-  </si>
-  <si>
-    <t>Global3</t>
-  </si>
-  <si>
-    <t>Global4</t>
-  </si>
-  <si>
-    <t>ARRoom</t>
-  </si>
-  <si>
-    <t>ARRoompk</t>
-  </si>
-  <si>
-    <t>ARRoomPVE</t>
-  </si>
-  <si>
-    <t>2;true</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefenseTest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_RoomTest1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomTest1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseEndlessChallenge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomTutorialFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARRoomTutorialFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseTutorialFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndlessChallenge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerAlone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerTeam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_ARRoomPK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseNormal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayPKNormal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg1</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_test11;3;100;0;0</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg2</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg3</t>
+  </si>
+  <si>
+    <t>PKCfg1</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfgTest</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg2;5;0;600;0</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg1;5;0;600;0</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfgTutorialFirst</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseEndlessChallenge</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseTutorialFirst</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefensePVP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -881,13 +933,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" customWidth="1"/>
+    <col min="8" max="8" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
@@ -924,19 +976,19 @@
       </c>
       <c r="J1" s="13"/>
       <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="O1" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1023,16 +1075,16 @@
         <v>5</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1114,19 +1166,19 @@
         <v>21</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="O5" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1145,10 +1197,10 @@
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" t="b">
@@ -1158,38 +1210,38 @@
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L6" s="7">
         <v>1</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" t="b">
@@ -1199,38 +1251,38 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" t="b">
@@ -1240,38 +1292,38 @@
         <v>10</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7">
         <v>1</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" t="b">
@@ -1281,38 +1333,38 @@
         <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7">
         <v>1</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" t="b">
@@ -1322,40 +1374,38 @@
         <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7">
         <v>1</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" t="b">
@@ -1365,79 +1415,81 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7">
         <v>1</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12" s="7">
         <v>1</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" t="b">
@@ -1447,38 +1499,38 @@
         <v>100</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7">
         <v>1</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" t="b">
@@ -1488,38 +1540,38 @@
         <v>100</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7">
         <v>1</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" t="b">
@@ -1529,79 +1581,79 @@
         <v>100</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="7" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7">
         <v>1</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" t="b">
@@ -1611,38 +1663,38 @@
         <v>10</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L17" s="7">
         <v>30</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" t="b">
@@ -1652,156 +1704,238 @@
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L18" s="7">
         <v>30</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="7">
-        <v>30</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="K20" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="L20" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="J22" s="6"/>
       <c r="K22" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="7">
+        <v>30</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="7">
+        <v>30</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="7">
+        <v>30</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1469C0A9-A98C-436E-BDBC-F4B643AD2D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C0F420-4759-483E-8D1A-97A03E8C229E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="262">
   <si>
     <t>##var</t>
   </si>
@@ -634,14 +647,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TowerDefenseCfg_Infinite;20;0;100;0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Infinite;5;0;600;0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>（单卡教学）挑战关卡1</t>
   </si>
   <si>
@@ -833,15 +838,34 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>新手关卡(编辑器）</t>
+    <t>TowerDefenseCfg_Infinite;3;0;0;0</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试-无限模式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Infinite_Test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Infinite;3;0;0;0</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfgTutorialFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Infinite_Test;3;0;0;0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -874,6 +898,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1324,13 +1355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1523,7 +1554,7 @@
     </row>
     <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>99</v>
@@ -1581,7 +1612,7 @@
         <v>39</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>40</v>
@@ -1620,7 +1651,7 @@
         <v>95</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>40</v>
@@ -1641,13 +1672,13 @@
     <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="E10" s="9" t="b">
         <f>FALSE()</f>
@@ -1660,7 +1691,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>40</v>
@@ -1681,13 +1712,13 @@
     <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>227</v>
+        <v>258</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E12" s="9" t="b">
         <v>0</v>
@@ -1696,10 +1727,10 @@
         <v>4</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>222</v>
+        <v>39</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>40</v>
@@ -1719,13 +1750,13 @@
     </row>
     <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E13" s="9" t="b">
         <v>0</v>
@@ -1737,7 +1768,7 @@
         <v>89</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>40</v>
@@ -1757,13 +1788,13 @@
     </row>
     <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E14" s="9" t="b">
         <v>0</v>
@@ -1775,7 +1806,7 @@
         <v>89</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>40</v>
@@ -1795,13 +1826,13 @@
     </row>
     <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E15" s="9" t="b">
         <v>0</v>
@@ -1813,7 +1844,7 @@
         <v>89</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>40</v>
@@ -1833,13 +1864,13 @@
     </row>
     <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E16" s="9" t="b">
         <v>0</v>
@@ -1851,7 +1882,7 @@
         <v>89</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>40</v>
@@ -1871,13 +1902,13 @@
     </row>
     <row r="17" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E17" s="9" t="b">
         <v>0</v>
@@ -1889,7 +1920,7 @@
         <v>89</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>40</v>
@@ -1909,13 +1940,13 @@
     </row>
     <row r="18" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E18" s="9" t="b">
         <v>0</v>
@@ -1927,7 +1958,7 @@
         <v>89</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>40</v>
@@ -1947,13 +1978,13 @@
     </row>
     <row r="19" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E19" s="9" t="b">
         <v>0</v>
@@ -1965,7 +1996,7 @@
         <v>89</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>40</v>
@@ -1985,13 +2016,13 @@
     </row>
     <row r="20" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E20" s="9" t="b">
         <v>0</v>
@@ -2003,7 +2034,7 @@
         <v>89</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>40</v>
@@ -2023,13 +2054,13 @@
     </row>
     <row r="21" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E21" s="9" t="b">
         <v>0</v>
@@ -2041,7 +2072,7 @@
         <v>89</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>40</v>
@@ -2061,13 +2092,13 @@
     </row>
     <row r="22" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E22" s="9" t="b">
         <v>0</v>
@@ -2079,13 +2110,13 @@
         <v>89</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>42</v>
@@ -2099,13 +2130,13 @@
     </row>
     <row r="23" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E23" s="9" t="b">
         <v>0</v>
@@ -2117,7 +2148,7 @@
         <v>89</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>40</v>
@@ -2137,13 +2168,13 @@
     </row>
     <row r="24" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E24" s="9" t="b">
         <v>0</v>
@@ -2155,7 +2186,7 @@
         <v>89</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>40</v>
@@ -2175,13 +2206,13 @@
     </row>
     <row r="25" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E25" s="9" t="b">
         <v>0</v>
@@ -2193,7 +2224,7 @@
         <v>89</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>40</v>
@@ -2213,13 +2244,13 @@
     </row>
     <row r="26" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E26" s="9" t="b">
         <v>0</v>
@@ -2231,7 +2262,7 @@
         <v>89</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>40</v>
@@ -2251,13 +2282,13 @@
     </row>
     <row r="27" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E27" s="9" t="b">
         <v>0</v>
@@ -2269,7 +2300,7 @@
         <v>89</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>40</v>
@@ -2289,13 +2320,13 @@
     </row>
     <row r="28" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E28" s="9" t="b">
         <v>0</v>
@@ -2307,7 +2338,7 @@
         <v>89</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>40</v>
@@ -2327,13 +2358,13 @@
     </row>
     <row r="29" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E29" s="9" t="b">
         <v>0</v>
@@ -2345,7 +2376,7 @@
         <v>89</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>40</v>
@@ -2365,13 +2396,13 @@
     </row>
     <row r="30" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E30" s="9" t="b">
         <v>0</v>
@@ -2383,7 +2414,7 @@
         <v>89</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>40</v>
@@ -2403,13 +2434,13 @@
     </row>
     <row r="31" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E31" s="9" t="b">
         <v>0</v>
@@ -2421,7 +2452,7 @@
         <v>89</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>40</v>
@@ -2439,68 +2470,67 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E33" s="9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>4</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    <row r="32" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>4</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E34" s="9" t="b">
-        <f t="shared" ref="E34:E45" si="0">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F34" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>196</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>40</v>
@@ -2520,16 +2550,16 @@
     </row>
     <row r="35" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E35" s="9" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E35:E46" si="0">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F35" s="9">
@@ -2539,7 +2569,7 @@
         <v>39</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>40</v>
@@ -2559,13 +2589,13 @@
     </row>
     <row r="36" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E36" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2575,19 +2605,19 @@
         <v>10</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>50</v>
+        <v>256</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>43</v>
@@ -2598,13 +2628,13 @@
     </row>
     <row r="37" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E37" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2614,19 +2644,19 @@
         <v>10</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>43</v>
@@ -2637,13 +2667,13 @@
     </row>
     <row r="38" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E38" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2653,10 +2683,10 @@
         <v>10</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>40</v>
@@ -2676,13 +2706,13 @@
     </row>
     <row r="39" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E39" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2692,19 +2722,19 @@
         <v>10</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>43</v>
@@ -2715,13 +2745,13 @@
     </row>
     <row r="40" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E40" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2734,13 +2764,10 @@
         <v>55</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>63</v>
@@ -2757,13 +2784,13 @@
     </row>
     <row r="41" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E41" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2773,13 +2800,16 @@
         <v>10</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="K41" s="9" t="s">
         <v>63</v>
@@ -2796,13 +2826,13 @@
     </row>
     <row r="42" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E42" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2812,19 +2842,19 @@
         <v>10</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>43</v>
@@ -2835,20 +2865,20 @@
     </row>
     <row r="43" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="9" t="s">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E43" s="9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>55</v>
@@ -2860,13 +2890,13 @@
         <v>40</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="N43" s="9" t="s">
         <v>44</v>
@@ -2874,13 +2904,13 @@
     </row>
     <row r="44" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E44" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2899,10 +2929,10 @@
         <v>40</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>82</v>
@@ -2913,13 +2943,13 @@
     </row>
     <row r="45" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E45" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2938,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>82</v>
@@ -2952,38 +2982,38 @@
     </row>
     <row r="46" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E46" s="9" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F46" s="9">
         <v>100</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="N46" s="9" t="s">
         <v>44</v>
@@ -2991,13 +3021,13 @@
     </row>
     <row r="47" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E47" s="9" t="b">
         <f>TRUE()</f>
@@ -3016,10 +3046,10 @@
         <v>61</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>43</v>
@@ -3030,13 +3060,13 @@
     </row>
     <row r="48" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E48" s="9" t="b">
         <f>TRUE()</f>
@@ -3055,10 +3085,10 @@
         <v>61</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>43</v>
@@ -3069,13 +3099,13 @@
     </row>
     <row r="49" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E49" s="9" t="b">
         <f>TRUE()</f>
@@ -3094,13 +3124,13 @@
         <v>61</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="N49" s="9" t="s">
         <v>44</v>
@@ -3108,13 +3138,13 @@
     </row>
     <row r="50" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E50" s="9" t="b">
         <f>TRUE()</f>
@@ -3133,7 +3163,7 @@
         <v>61</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>82</v>
@@ -3147,13 +3177,13 @@
     </row>
     <row r="51" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E51" s="9" t="b">
         <f>TRUE()</f>
@@ -3172,10 +3202,10 @@
         <v>61</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>82</v>
@@ -3186,13 +3216,13 @@
     </row>
     <row r="52" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E52" s="9" t="b">
         <f>TRUE()</f>
@@ -3211,10 +3241,10 @@
         <v>61</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>82</v>
@@ -3225,38 +3255,38 @@
     </row>
     <row r="53" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E53" s="9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F53" s="9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="N53" s="9" t="s">
         <v>44</v>
@@ -3264,13 +3294,13 @@
     </row>
     <row r="54" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E54" s="9" t="b">
         <f>FALSE()</f>
@@ -3280,13 +3310,13 @@
         <v>10</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="K54" s="9" t="s">
         <v>85</v>
@@ -3303,32 +3333,32 @@
     </row>
     <row r="55" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E55" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F55" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="L55" s="9" t="s">
         <v>42</v>
@@ -3342,38 +3372,35 @@
     </row>
     <row r="56" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E56" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>43</v>
@@ -3384,26 +3411,26 @@
     </row>
     <row r="57" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E57" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F57" s="9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>66</v>
@@ -3412,10 +3439,10 @@
         <v>68</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="M57" s="9" t="s">
         <v>43</v>
@@ -3426,35 +3453,38 @@
     </row>
     <row r="58" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E58" s="9" t="b">
-        <f t="shared" ref="E58:E65" si="1">TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F58" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>43</v>
@@ -3465,16 +3495,16 @@
     </row>
     <row r="59" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E59" s="9" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E59:E66" si="1">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F59" s="9">
@@ -3490,10 +3520,10 @@
         <v>61</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="M59" s="9" t="s">
         <v>43</v>
@@ -3504,13 +3534,13 @@
     </row>
     <row r="60" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E60" s="9" t="b">
         <f t="shared" si="1"/>
@@ -3529,10 +3559,10 @@
         <v>61</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>43</v>
@@ -3543,13 +3573,13 @@
     </row>
     <row r="61" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E61" s="9" t="b">
         <f t="shared" si="1"/>
@@ -3568,10 +3598,10 @@
         <v>61</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>43</v>
@@ -3582,13 +3612,13 @@
     </row>
     <row r="62" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E62" s="9" t="b">
         <f t="shared" si="1"/>
@@ -3607,10 +3637,10 @@
         <v>61</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>43</v>
@@ -3621,13 +3651,13 @@
     </row>
     <row r="63" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E63" s="9" t="b">
         <f t="shared" si="1"/>
@@ -3646,10 +3676,10 @@
         <v>61</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>43</v>
@@ -3660,13 +3690,13 @@
     </row>
     <row r="64" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E64" s="9" t="b">
         <f t="shared" si="1"/>
@@ -3685,10 +3715,10 @@
         <v>61</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>43</v>
@@ -3699,13 +3729,13 @@
     </row>
     <row r="65" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E65" s="9" t="b">
         <f t="shared" si="1"/>
@@ -3724,66 +3754,67 @@
         <v>61</v>
       </c>
       <c r="K65" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="L65" s="9" t="s">
+      <c r="D66" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F66" s="9">
+        <v>100</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L66" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="M65" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N65" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="9">
-        <v>4</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
+      <c r="M66" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E68" s="9" t="b">
         <v>0</v>
@@ -3795,7 +3826,7 @@
         <v>89</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>40</v>
@@ -3815,13 +3846,13 @@
     </row>
     <row r="69" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E69" s="9" t="b">
         <v>0</v>
@@ -3833,7 +3864,7 @@
         <v>89</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>40</v>
@@ -3853,13 +3884,13 @@
     </row>
     <row r="70" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E70" s="9" t="b">
         <v>0</v>
@@ -3871,7 +3902,7 @@
         <v>89</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>40</v>
@@ -3891,13 +3922,13 @@
     </row>
     <row r="71" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E71" s="9" t="b">
         <v>0</v>
@@ -3909,7 +3940,7 @@
         <v>89</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>40</v>
@@ -3929,13 +3960,13 @@
     </row>
     <row r="72" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E72" s="9" t="b">
         <v>0</v>
@@ -3947,7 +3978,7 @@
         <v>89</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>40</v>
@@ -3967,13 +3998,13 @@
     </row>
     <row r="73" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E73" s="9" t="b">
         <v>0</v>
@@ -3985,7 +4016,7 @@
         <v>89</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>40</v>
@@ -4005,13 +4036,13 @@
     </row>
     <row r="74" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E74" s="9" t="b">
         <v>0</v>
@@ -4023,7 +4054,7 @@
         <v>89</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>40</v>
@@ -4043,13 +4074,13 @@
     </row>
     <row r="75" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E75" s="9" t="b">
         <v>0</v>
@@ -4061,7 +4092,7 @@
         <v>89</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>40</v>
@@ -4081,13 +4112,13 @@
     </row>
     <row r="76" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E76" s="9" t="b">
         <v>0</v>
@@ -4099,7 +4130,7 @@
         <v>89</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>40</v>
@@ -4119,13 +4150,13 @@
     </row>
     <row r="77" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E77" s="9" t="b">
         <v>0</v>
@@ -4137,7 +4168,7 @@
         <v>89</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>40</v>
@@ -4157,13 +4188,13 @@
     </row>
     <row r="78" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E78" s="9" t="b">
         <v>0</v>
@@ -4175,7 +4206,7 @@
         <v>89</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>40</v>
@@ -4195,13 +4226,13 @@
     </row>
     <row r="79" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E79" s="9" t="b">
         <v>0</v>
@@ -4213,7 +4244,7 @@
         <v>89</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>40</v>
@@ -4233,13 +4264,13 @@
     </row>
     <row r="80" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E80" s="9" t="b">
         <v>0</v>
@@ -4251,7 +4282,7 @@
         <v>89</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>40</v>
@@ -4271,13 +4302,13 @@
     </row>
     <row r="81" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E81" s="9" t="b">
         <v>0</v>
@@ -4289,7 +4320,7 @@
         <v>89</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>40</v>
@@ -4307,54 +4338,54 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E83" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" s="9">
-        <v>4</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    <row r="82" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E82" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="9">
+        <v>4</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E84" s="9" t="b">
         <v>0</v>
@@ -4366,7 +4397,7 @@
         <v>89</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>40</v>
@@ -4386,13 +4417,13 @@
     </row>
     <row r="85" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E85" s="9" t="b">
         <v>0</v>
@@ -4404,7 +4435,7 @@
         <v>89</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>40</v>
@@ -4424,13 +4455,13 @@
     </row>
     <row r="86" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E86" s="9" t="b">
         <v>0</v>
@@ -4442,7 +4473,7 @@
         <v>89</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>40</v>
@@ -4462,13 +4493,13 @@
     </row>
     <row r="87" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E87" s="9" t="b">
         <v>0</v>
@@ -4480,7 +4511,7 @@
         <v>89</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>40</v>
@@ -4500,13 +4531,13 @@
     </row>
     <row r="88" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E88" s="9" t="b">
         <v>0</v>
@@ -4518,7 +4549,7 @@
         <v>89</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>40</v>
@@ -4538,13 +4569,13 @@
     </row>
     <row r="89" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E89" s="9" t="b">
         <v>0</v>
@@ -4556,7 +4587,7 @@
         <v>89</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>40</v>
@@ -4576,13 +4607,13 @@
     </row>
     <row r="90" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E90" s="9" t="b">
         <v>0</v>
@@ -4594,7 +4625,7 @@
         <v>89</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>40</v>
@@ -4614,13 +4645,13 @@
     </row>
     <row r="91" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E91" s="9" t="b">
         <v>0</v>
@@ -4632,7 +4663,7 @@
         <v>89</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>40</v>
@@ -4652,13 +4683,13 @@
     </row>
     <row r="92" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E92" s="9" t="b">
         <v>0</v>
@@ -4670,7 +4701,7 @@
         <v>89</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>40</v>
@@ -4690,13 +4721,13 @@
     </row>
     <row r="93" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E93" s="9" t="b">
         <v>0</v>
@@ -4708,7 +4739,7 @@
         <v>89</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>40</v>
@@ -4728,13 +4759,13 @@
     </row>
     <row r="94" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E94" s="9" t="b">
         <v>0</v>
@@ -4746,7 +4777,7 @@
         <v>89</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>40</v>
@@ -4766,13 +4797,13 @@
     </row>
     <row r="95" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E95" s="9" t="b">
         <v>0</v>
@@ -4784,7 +4815,7 @@
         <v>89</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>40</v>
@@ -4804,13 +4835,13 @@
     </row>
     <row r="96" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E96" s="9" t="b">
         <v>0</v>
@@ -4822,7 +4853,7 @@
         <v>89</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>40</v>
@@ -4842,14 +4873,14 @@
     </row>
     <row r="97" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>214</v>
-      </c>
       <c r="E97" s="9" t="b">
         <v>0</v>
       </c>
@@ -4860,7 +4891,7 @@
         <v>89</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>40</v>
@@ -4875,6 +4906,44 @@
         <v>43</v>
       </c>
       <c r="N97" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E98" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="9">
+        <v>4</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N98" s="9" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C0F420-4759-483E-8D1A-97A03E8C229E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB296156-1CD6-47D3-8E41-4DA105C6B4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="274">
   <si>
     <t>##var</t>
   </si>
@@ -327,12 +325,6 @@
   </si>
   <si>
     <t>GamePlayBattleLevel_ARRoomEndlessChallenge</t>
-  </si>
-  <si>
-    <t>ARRoomEndlessChallenge</t>
-  </si>
-  <si>
-    <t>ARRoomTutorialFirst</t>
   </si>
   <si>
     <t>GamePlayBattleLevel_Benchmark1</t>
@@ -834,10 +826,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RoomTutorialFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Infinite;3;0;0;0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -859,6 +847,66 @@
   <si>
     <t>TowerDefenseCfg_Infinite_Test;3;0;0;0</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.28,-9.12,-18.6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_NoARRoomEndlessChallenge</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_NoARRoomPVP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限模式(NoAR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战模式(NoAR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡1(NoAR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡2(NoAR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡3(NoAR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡4(NoAR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡5(NoAR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡6(NoAR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡7(NoAR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡8(NoAR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡9(NoAR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡10(NoAR)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -969,7 +1017,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1002,6 +1050,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1355,34 +1406,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="10" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="10" customWidth="1"/>
     <col min="6" max="6" width="14" style="10" customWidth="1"/>
-    <col min="7" max="8" width="37.125" style="10" customWidth="1"/>
+    <col min="7" max="8" width="37.109375" style="10" customWidth="1"/>
     <col min="9" max="9" width="19" style="10" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="11" customWidth="1"/>
     <col min="13" max="14" width="14" style="11" customWidth="1"/>
     <col min="15" max="19" width="9" style="10" customWidth="1"/>
     <col min="20" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1401,14 +1452,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1499,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1467,14 +1518,14 @@
       <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1488,7 +1539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1508,7 +1559,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -1552,15 +1603,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E6" s="9" t="b">
         <f>FALSE()</f>
@@ -1581,25 +1632,25 @@
       <c r="K6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="9" t="s">
+      <c r="L6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7" s="9" t="b">
         <f>FALSE()</f>
@@ -1612,7 +1663,7 @@
         <v>39</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>40</v>
@@ -1620,25 +1671,25 @@
       <c r="K7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="L7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E8" s="9" t="b">
         <f>FALSE()</f>
@@ -1651,7 +1702,7 @@
         <v>95</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>40</v>
@@ -1659,39 +1710,77 @@
       <c r="K8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="L8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E10" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>40</v>
@@ -1699,38 +1788,42 @@
       <c r="K10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="9" t="s">
+      <c r="L10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C12" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>4</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>40</v>
@@ -1738,63 +1831,29 @@
       <c r="K12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="9" t="s">
+      <c r="L12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>125</v>
+        <v>255</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E14" s="9" t="b">
         <v>0</v>
@@ -1803,10 +1862,10 @@
         <v>4</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>221</v>
+        <v>39</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>40</v>
@@ -1814,25 +1873,25 @@
       <c r="K14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="9" t="s">
+      <c r="L14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E15" s="9" t="b">
         <v>0</v>
@@ -1844,7 +1903,7 @@
         <v>89</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>40</v>
@@ -1852,25 +1911,25 @@
       <c r="K15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="9" t="s">
+      <c r="L15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N15" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E16" s="9" t="b">
         <v>0</v>
@@ -1882,7 +1941,7 @@
         <v>89</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>40</v>
@@ -1890,25 +1949,25 @@
       <c r="K16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="9" t="s">
+      <c r="L16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E17" s="9" t="b">
         <v>0</v>
@@ -1920,7 +1979,7 @@
         <v>89</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>40</v>
@@ -1928,25 +1987,25 @@
       <c r="K17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="9" t="s">
+      <c r="L17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N17" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E18" s="9" t="b">
         <v>0</v>
@@ -1958,7 +2017,7 @@
         <v>89</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>40</v>
@@ -1966,25 +2025,25 @@
       <c r="K18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="L18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N18" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E19" s="9" t="b">
         <v>0</v>
@@ -1996,7 +2055,7 @@
         <v>89</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>40</v>
@@ -2004,25 +2063,25 @@
       <c r="K19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="9" t="s">
+      <c r="L19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E20" s="9" t="b">
         <v>0</v>
@@ -2034,7 +2093,7 @@
         <v>89</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>40</v>
@@ -2042,25 +2101,25 @@
       <c r="K20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="9" t="s">
+      <c r="L20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E21" s="9" t="b">
         <v>0</v>
@@ -2072,7 +2131,7 @@
         <v>89</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>40</v>
@@ -2080,25 +2139,25 @@
       <c r="K21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="9" t="s">
+      <c r="L21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E22" s="9" t="b">
         <v>0</v>
@@ -2110,7 +2169,7 @@
         <v>89</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>40</v>
@@ -2118,25 +2177,25 @@
       <c r="K22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="9" t="s">
+      <c r="L22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E23" s="9" t="b">
         <v>0</v>
@@ -2148,33 +2207,33 @@
         <v>89</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E24" s="9" t="b">
         <v>0</v>
@@ -2186,33 +2245,33 @@
         <v>89</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E25" s="9" t="b">
         <v>0</v>
@@ -2224,7 +2283,7 @@
         <v>89</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>40</v>
@@ -2232,25 +2291,25 @@
       <c r="K25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="9" t="s">
+      <c r="L25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E26" s="9" t="b">
         <v>0</v>
@@ -2262,7 +2321,7 @@
         <v>89</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>40</v>
@@ -2270,25 +2329,25 @@
       <c r="K26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="9" t="s">
+      <c r="L26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E27" s="9" t="b">
         <v>0</v>
@@ -2300,7 +2359,7 @@
         <v>89</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>40</v>
@@ -2308,25 +2367,25 @@
       <c r="K27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="9" t="s">
+      <c r="L27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N27" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>239</v>
+        <v>129</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E28" s="9" t="b">
         <v>0</v>
@@ -2338,7 +2397,7 @@
         <v>89</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>40</v>
@@ -2346,25 +2405,25 @@
       <c r="K28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="9" t="s">
+      <c r="L28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29" s="9" t="b">
         <v>0</v>
@@ -2376,7 +2435,7 @@
         <v>89</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>40</v>
@@ -2384,25 +2443,25 @@
       <c r="K29" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="9" t="s">
+      <c r="L29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N29" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E30" s="9" t="b">
         <v>0</v>
@@ -2414,7 +2473,7 @@
         <v>89</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>40</v>
@@ -2422,25 +2481,25 @@
       <c r="K30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="9" t="s">
+      <c r="L30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N30" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E31" s="9" t="b">
         <v>0</v>
@@ -2452,7 +2511,7 @@
         <v>89</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>40</v>
@@ -2460,25 +2519,25 @@
       <c r="K31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L31" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M31" s="9" t="s">
+      <c r="L31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E32" s="9" t="b">
         <v>0</v>
@@ -2490,7 +2549,7 @@
         <v>89</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>40</v>
@@ -2498,117 +2557,118 @@
       <c r="K32" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="9" t="s">
+      <c r="L32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N32" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>4</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>4</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F34" s="9">
-        <v>4</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="F36" s="9">
+        <v>4</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E35" s="9" t="b">
-        <f t="shared" ref="E35:E46" si="0">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="9">
-        <v>10</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E36" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="9">
-        <v>10</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>40</v>
@@ -2616,64 +2676,64 @@
       <c r="K36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M36" s="9" t="s">
+      <c r="L36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N36" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E37" s="9" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E37:E48" si="0">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F37" s="9">
         <v>10</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M37" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E38" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2683,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>56</v>
+        <v>253</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>40</v>
@@ -2694,25 +2754,25 @@
       <c r="K38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38" s="9" t="s">
+      <c r="L38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N38" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E39" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2722,36 +2782,36 @@
         <v>10</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N39" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E40" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2764,33 +2824,33 @@
         <v>55</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N40" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E41" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2800,39 +2860,36 @@
         <v>10</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N41" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E42" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2842,10 +2899,10 @@
         <v>10</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>61</v>
@@ -2853,25 +2910,25 @@
       <c r="K42" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="L42" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M42" s="9" t="s">
+      <c r="M42" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N42" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E43" s="9" t="b">
         <f t="shared" si="0"/>
@@ -2884,79 +2941,82 @@
         <v>55</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M43" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N43" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E44" s="9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>82</v>
+        <v>63</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="N44" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E45" s="9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>55</v>
@@ -2968,27 +3028,27 @@
         <v>40</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>82</v>
+        <v>41</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="N45" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E46" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3007,105 +3067,105 @@
         <v>40</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="M46" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="M46" s="12" t="s">
         <v>82</v>
       </c>
       <c r="N46" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E47" s="9" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F47" s="9">
         <v>100</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>43</v>
+        <v>177</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="N47" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E48" s="9" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F48" s="9">
         <v>100</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>43</v>
+        <v>189</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="N48" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E49" s="9" t="b">
         <f>TRUE()</f>
@@ -3124,27 +3184,27 @@
         <v>61</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M49" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M49" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N49" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E50" s="9" t="b">
         <f>TRUE()</f>
@@ -3163,27 +3223,27 @@
         <v>61</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="N50" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E51" s="9" t="b">
         <f>TRUE()</f>
@@ -3202,27 +3262,27 @@
         <v>61</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>82</v>
+        <v>41</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="N51" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E52" s="9" t="b">
         <f>TRUE()</f>
@@ -3241,27 +3301,27 @@
         <v>61</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="M52" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L52" s="12" t="s">
         <v>82</v>
       </c>
+      <c r="M52" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="N52" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E53" s="9" t="b">
         <f>TRUE()</f>
@@ -3280,73 +3340,73 @@
         <v>61</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="M53" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="M53" s="12" t="s">
         <v>82</v>
       </c>
       <c r="N53" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E54" s="9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F54" s="9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>43</v>
+        <v>177</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="N54" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E55" s="9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F55" s="9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>71</v>
@@ -3358,231 +3418,231 @@
         <v>61</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>43</v>
+        <v>189</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="N55" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E56" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M56" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N56" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E57" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F57" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M57" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M57" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N57" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E58" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F58" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M58" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M58" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N58" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E59" s="9" t="b">
-        <f t="shared" ref="E59:E66" si="1">TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F59" s="9">
         <v>100</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L59" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L59" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M59" s="9" t="s">
+      <c r="M59" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N59" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E60" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F60" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M60" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N60" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E61" s="9" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E61:E68" si="1">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F61" s="9">
@@ -3598,27 +3658,27 @@
         <v>61</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M61" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M61" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N61" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E62" s="9" t="b">
         <f t="shared" si="1"/>
@@ -3637,27 +3697,27 @@
         <v>61</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M62" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M62" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N62" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E63" s="9" t="b">
         <f t="shared" si="1"/>
@@ -3676,27 +3736,27 @@
         <v>61</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L63" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M63" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M63" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N63" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E64" s="9" t="b">
         <f t="shared" si="1"/>
@@ -3715,27 +3775,27 @@
         <v>61</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="M64" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M64" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N64" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E65" s="9" t="b">
         <f t="shared" si="1"/>
@@ -3754,27 +3814,27 @@
         <v>61</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="M65" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M65" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N65" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E66" s="9" t="b">
         <f t="shared" si="1"/>
@@ -3793,104 +3853,109 @@
         <v>61</v>
       </c>
       <c r="K66" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E67" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F67" s="9">
+        <v>100</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L67" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F68" s="9">
+        <v>100</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+    </row>
+    <row r="70" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="L66" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N66" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E68" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9">
-        <v>4</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E69" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="9">
-        <v>4</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="C70" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E70" s="9" t="b">
         <v>0</v>
@@ -3902,7 +3967,7 @@
         <v>89</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>40</v>
@@ -3910,25 +3975,25 @@
       <c r="K70" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L70" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M70" s="9" t="s">
+      <c r="L70" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M70" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N70" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E71" s="9" t="b">
         <v>0</v>
@@ -3940,7 +4005,7 @@
         <v>89</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>40</v>
@@ -3948,25 +4013,25 @@
       <c r="K71" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L71" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M71" s="9" t="s">
+      <c r="L71" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N71" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E72" s="9" t="b">
         <v>0</v>
@@ -3978,7 +4043,7 @@
         <v>89</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>40</v>
@@ -3986,25 +4051,25 @@
       <c r="K72" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L72" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M72" s="9" t="s">
+      <c r="L72" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M72" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N72" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E73" s="9" t="b">
         <v>0</v>
@@ -4016,7 +4081,7 @@
         <v>89</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>40</v>
@@ -4024,25 +4089,25 @@
       <c r="K73" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L73" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M73" s="9" t="s">
+      <c r="L73" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M73" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N73" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E74" s="9" t="b">
         <v>0</v>
@@ -4054,7 +4119,7 @@
         <v>89</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>40</v>
@@ -4062,25 +4127,25 @@
       <c r="K74" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L74" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M74" s="9" t="s">
+      <c r="L74" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M74" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N74" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E75" s="9" t="b">
         <v>0</v>
@@ -4092,7 +4157,7 @@
         <v>89</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>40</v>
@@ -4100,25 +4165,25 @@
       <c r="K75" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L75" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M75" s="9" t="s">
+      <c r="L75" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M75" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N75" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E76" s="9" t="b">
         <v>0</v>
@@ -4130,7 +4195,7 @@
         <v>89</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>40</v>
@@ -4138,25 +4203,25 @@
       <c r="K76" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L76" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M76" s="9" t="s">
+      <c r="L76" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M76" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N76" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E77" s="9" t="b">
         <v>0</v>
@@ -4168,7 +4233,7 @@
         <v>89</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>40</v>
@@ -4176,25 +4241,25 @@
       <c r="K77" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L77" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M77" s="9" t="s">
+      <c r="L77" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M77" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N77" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E78" s="9" t="b">
         <v>0</v>
@@ -4206,7 +4271,7 @@
         <v>89</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>40</v>
@@ -4214,25 +4279,25 @@
       <c r="K78" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L78" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M78" s="9" t="s">
+      <c r="L78" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M78" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N78" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E79" s="9" t="b">
         <v>0</v>
@@ -4244,7 +4309,7 @@
         <v>89</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>40</v>
@@ -4252,25 +4317,25 @@
       <c r="K79" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L79" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M79" s="9" t="s">
+      <c r="L79" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M79" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N79" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E80" s="9" t="b">
         <v>0</v>
@@ -4282,7 +4347,7 @@
         <v>89</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>40</v>
@@ -4290,25 +4355,25 @@
       <c r="K80" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L80" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M80" s="9" t="s">
+      <c r="L80" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M80" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N80" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E81" s="9" t="b">
         <v>0</v>
@@ -4320,7 +4385,7 @@
         <v>89</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>40</v>
@@ -4328,25 +4393,25 @@
       <c r="K81" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L81" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M81" s="9" t="s">
+      <c r="L81" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M81" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N81" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E82" s="9" t="b">
         <v>0</v>
@@ -4358,7 +4423,7 @@
         <v>89</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>40</v>
@@ -4366,26 +4431,63 @@
       <c r="K82" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L82" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M82" s="9" t="s">
+      <c r="L82" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M82" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N82" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="9">
+        <v>4</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E84" s="9" t="b">
         <v>0</v>
@@ -4397,71 +4499,37 @@
         <v>89</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L84" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M84" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L84" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M84" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N84" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E85" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" s="9">
-        <v>4</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L85" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M85" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N85" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+    </row>
+    <row r="86" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E86" s="9" t="b">
         <v>0</v>
@@ -4473,7 +4541,7 @@
         <v>89</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>40</v>
@@ -4481,25 +4549,25 @@
       <c r="K86" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L86" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M86" s="9" t="s">
+      <c r="L86" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M86" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N86" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E87" s="9" t="b">
         <v>0</v>
@@ -4511,7 +4579,7 @@
         <v>89</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>40</v>
@@ -4519,25 +4587,25 @@
       <c r="K87" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L87" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M87" s="9" t="s">
+      <c r="L87" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M87" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N87" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E88" s="9" t="b">
         <v>0</v>
@@ -4549,7 +4617,7 @@
         <v>89</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>40</v>
@@ -4557,25 +4625,25 @@
       <c r="K88" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L88" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M88" s="9" t="s">
+      <c r="L88" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M88" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N88" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E89" s="9" t="b">
         <v>0</v>
@@ -4587,7 +4655,7 @@
         <v>89</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>40</v>
@@ -4595,25 +4663,25 @@
       <c r="K89" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L89" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M89" s="9" t="s">
+      <c r="L89" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M89" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N89" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E90" s="9" t="b">
         <v>0</v>
@@ -4625,7 +4693,7 @@
         <v>89</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>40</v>
@@ -4633,25 +4701,25 @@
       <c r="K90" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L90" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M90" s="9" t="s">
+      <c r="L90" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M90" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N90" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E91" s="9" t="b">
         <v>0</v>
@@ -4663,7 +4731,7 @@
         <v>89</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>40</v>
@@ -4671,25 +4739,25 @@
       <c r="K91" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L91" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M91" s="9" t="s">
+      <c r="L91" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M91" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N91" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E92" s="9" t="b">
         <v>0</v>
@@ -4701,7 +4769,7 @@
         <v>89</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>40</v>
@@ -4709,25 +4777,25 @@
       <c r="K92" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L92" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M92" s="9" t="s">
+      <c r="L92" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M92" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N92" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E93" s="9" t="b">
         <v>0</v>
@@ -4739,7 +4807,7 @@
         <v>89</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>40</v>
@@ -4747,25 +4815,25 @@
       <c r="K93" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L93" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M93" s="9" t="s">
+      <c r="L93" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M93" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N93" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E94" s="9" t="b">
         <v>0</v>
@@ -4777,7 +4845,7 @@
         <v>89</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>40</v>
@@ -4785,25 +4853,25 @@
       <c r="K94" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L94" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M94" s="9" t="s">
+      <c r="L94" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M94" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N94" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E95" s="9" t="b">
         <v>0</v>
@@ -4815,7 +4883,7 @@
         <v>89</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>40</v>
@@ -4823,25 +4891,25 @@
       <c r="K95" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L95" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M95" s="9" t="s">
+      <c r="L95" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M95" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E96" s="9" t="b">
         <v>0</v>
@@ -4853,7 +4921,7 @@
         <v>89</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>40</v>
@@ -4861,25 +4929,25 @@
       <c r="K96" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L96" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M96" s="9" t="s">
+      <c r="L96" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M96" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E97" s="9" t="b">
         <v>0</v>
@@ -4891,7 +4959,7 @@
         <v>89</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>40</v>
@@ -4899,25 +4967,25 @@
       <c r="K97" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L97" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M97" s="9" t="s">
+      <c r="L97" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M97" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C98" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="E98" s="9" t="b">
         <v>0</v>
@@ -4929,7 +4997,7 @@
         <v>89</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>40</v>
@@ -4937,13 +5005,89 @@
       <c r="K98" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L98" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M98" s="9" t="s">
+      <c r="L98" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M98" s="12" t="s">
         <v>43</v>
       </c>
       <c r="N98" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" s="9">
+        <v>4</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L99" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M99" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E100" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" s="9">
+        <v>4</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L100" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M100" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N100" s="9" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DA9B11-C402-4A8C-9A0A-02C13A8A00EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACC3C2F-404C-462E-876E-7D227B25087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="303">
   <si>
     <t>##var</t>
   </si>
@@ -944,6 +933,65 @@
   <si>
     <t>maxPlayerCount</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleGuideConfigFileName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗指引文件名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>testZpbBattle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge1_AR</t>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge2_AR</t>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge3_AR</t>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge4_AR</t>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge5_AR</t>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge1_NoAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge2_NoAR</t>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge3_NoAR</t>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge4_NoAR</t>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge5_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Offline_Test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试-线下模式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Offline;3;0;0;0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1443,13 +1491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1459,18 +1507,19 @@
     <col min="3" max="3" width="26.25" style="10" customWidth="1"/>
     <col min="4" max="4" width="25.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14" style="10" customWidth="1"/>
-    <col min="7" max="8" width="37.125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="19" style="10" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="11" customWidth="1"/>
-    <col min="13" max="14" width="14" style="11" customWidth="1"/>
-    <col min="15" max="19" width="9" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="10"/>
+    <col min="6" max="6" width="26.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="10" customWidth="1"/>
+    <col min="8" max="9" width="37.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="19" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="10" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="11" customWidth="1"/>
+    <col min="14" max="15" width="14" style="11" customWidth="1"/>
+    <col min="16" max="20" width="9" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1487,30 +1536,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,24 +1571,25 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1553,30 +1606,33 @@
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1592,11 +1648,12 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -1613,34 +1670,37 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>211</v>
       </c>
@@ -1654,32 +1714,32 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F6" s="9">
-        <v>4</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>96</v>
       </c>
@@ -1693,32 +1753,32 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F7" s="9">
-        <v>4</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="J7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>93</v>
       </c>
@@ -1732,32 +1792,32 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>6</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>271</v>
       </c>
@@ -1771,32 +1831,32 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F9" s="9">
-        <v>4</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>257</v>
       </c>
@@ -1810,32 +1870,32 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F10" s="9">
-        <v>4</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="9">
+        <v>4</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="J10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>258</v>
       </c>
@@ -1849,36 +1909,36 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>6</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="9" t="s">
+      <c r="J11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="L12" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>273</v>
       </c>
@@ -1892,32 +1952,32 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F13" s="9">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="9">
+        <v>4</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>253</v>
-      </c>
       <c r="I13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>274</v>
       </c>
@@ -1931,32 +1991,32 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F14" s="9">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="9">
+        <v>4</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>253</v>
-      </c>
       <c r="I14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>275</v>
       </c>
@@ -1970,32 +2030,32 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F15" s="9">
+      <c r="G15" s="9">
         <v>6</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>250</v>
-      </c>
       <c r="I15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>276</v>
       </c>
@@ -2009,32 +2069,32 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F16" s="9">
-        <v>4</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="9">
+        <v>4</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>253</v>
-      </c>
       <c r="I16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>277</v>
       </c>
@@ -2048,32 +2108,32 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F17" s="9">
-        <v>4</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="9">
+        <v>4</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>253</v>
-      </c>
       <c r="I17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>278</v>
       </c>
@@ -2087,41 +2147,41 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F18" s="9">
+      <c r="G18" s="9">
         <v>6</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>250</v>
-      </c>
       <c r="I18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="L19" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>251</v>
+        <v>300</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>210</v>
@@ -2129,37 +2189,37 @@
       <c r="E20" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F20" s="9">
-        <v>4</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="9">
+        <v>4</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>255</v>
-      </c>
       <c r="I20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>261</v>
+        <v>252</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>210</v>
@@ -2167,37 +2227,40 @@
       <c r="E21" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F21" s="9">
-        <v>4</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>88</v>
+      <c r="F21" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>210</v>
@@ -2205,37 +2268,40 @@
       <c r="E22" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
-        <v>4</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" s="9">
+        <v>4</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="I22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>210</v>
@@ -2243,37 +2309,40 @@
       <c r="E23" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="9">
-        <v>4</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="9">
+        <v>4</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>219</v>
-      </c>
       <c r="I23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>210</v>
@@ -2281,37 +2350,40 @@
       <c r="E24" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="9">
-        <v>4</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" s="9">
+        <v>4</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>220</v>
-      </c>
       <c r="I24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>210</v>
@@ -2319,37 +2391,40 @@
       <c r="E25" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="9">
-        <v>4</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="9">
+        <v>4</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>221</v>
-      </c>
       <c r="I25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>210</v>
@@ -2357,37 +2432,40 @@
       <c r="E26" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="9">
-        <v>4</v>
-      </c>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="9">
+        <v>4</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>240</v>
-      </c>
       <c r="I26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>210</v>
@@ -2395,37 +2473,37 @@
       <c r="E27" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F27" s="9">
-        <v>4</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="9">
+        <v>4</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>241</v>
-      </c>
       <c r="I27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>210</v>
@@ -2433,37 +2511,37 @@
       <c r="E28" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="9">
-        <v>4</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="9">
+        <v>4</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>242</v>
-      </c>
       <c r="I28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>210</v>
@@ -2471,37 +2549,37 @@
       <c r="E29" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="9">
-        <v>4</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="9">
+        <v>4</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>243</v>
-      </c>
       <c r="I29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>210</v>
@@ -2509,75 +2587,75 @@
       <c r="E30" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F30" s="9">
-        <v>4</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="9">
+        <v>4</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>4</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="9" t="s">
+      <c r="J31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="9" t="s">
+      <c r="M31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <v>4</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>209</v>
@@ -2585,37 +2663,40 @@
       <c r="E32" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="9">
-        <v>4</v>
-      </c>
-      <c r="G32" s="9" t="s">
+      <c r="F32" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" s="9">
+        <v>4</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="I32" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>209</v>
@@ -2623,37 +2704,40 @@
       <c r="E33" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="9">
-        <v>4</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" s="9">
+        <v>4</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>219</v>
-      </c>
       <c r="I33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>209</v>
@@ -2661,37 +2745,40 @@
       <c r="E34" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="9">
-        <v>4</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="F34" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" s="9">
+        <v>4</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>220</v>
-      </c>
       <c r="I34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L34" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>209</v>
@@ -2699,37 +2786,40 @@
       <c r="E35" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="9">
-        <v>4</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="F35" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" s="9">
+        <v>4</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>221</v>
-      </c>
       <c r="I35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K35" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L35" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>209</v>
@@ -2737,37 +2827,40 @@
       <c r="E36" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="9">
-        <v>4</v>
-      </c>
-      <c r="G36" s="9" t="s">
+      <c r="F36" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G36" s="9">
+        <v>4</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>240</v>
-      </c>
       <c r="I36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K36" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L36" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>209</v>
@@ -2775,37 +2868,37 @@
       <c r="E37" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F37" s="9">
-        <v>4</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="9">
+        <v>4</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>241</v>
-      </c>
       <c r="I37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L37" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>209</v>
@@ -2813,37 +2906,37 @@
       <c r="E38" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F38" s="9">
-        <v>4</v>
-      </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="9">
+        <v>4</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>242</v>
-      </c>
       <c r="I38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L38" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>209</v>
@@ -2851,37 +2944,37 @@
       <c r="E39" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="9">
-        <v>4</v>
-      </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="9">
+        <v>4</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>243</v>
-      </c>
       <c r="I39" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K39" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L39" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M39" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>209</v>
@@ -2889,158 +2982,157 @@
       <c r="E40" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F40" s="9">
-        <v>4</v>
-      </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="9">
+        <v>4</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="I40" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <v>4</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K40" s="9" t="s">
+      <c r="J41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L40" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="9" t="s">
+      <c r="M41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E42" s="9" t="b">
+      <c r="E43" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F42" s="9">
-        <v>4</v>
-      </c>
-      <c r="G42" s="9" t="s">
+      <c r="G43" s="9">
+        <v>4</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="I43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K42" s="9" t="s">
+      <c r="J43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L42" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="9" t="s">
+      <c r="M43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E43" s="9" t="b">
-        <f t="shared" ref="E43:E54" si="0">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="9">
-        <v>10</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>208</v>
       </c>
       <c r="E44" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="9">
+        <f t="shared" ref="E44:E55" si="0">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
         <v>10</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="I44" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K44" s="9" t="s">
+      <c r="J44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M44" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>208</v>
@@ -3049,37 +3141,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F45" s="9">
+      <c r="G45" s="9">
         <v>10</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="H45" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>51</v>
+        <v>250</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>208</v>
@@ -3088,37 +3180,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F46" s="9">
+      <c r="G46" s="9">
         <v>10</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="H46" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>208</v>
@@ -3127,37 +3219,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F47" s="9">
+      <c r="G47" s="9">
         <v>10</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="H47" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K47" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M47" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>208</v>
@@ -3166,37 +3258,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F48" s="9">
+      <c r="G48" s="9">
         <v>10</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="H48" s="9" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M48" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>208</v>
@@ -3205,40 +3297,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F49" s="9">
+      <c r="G49" s="9">
         <v>10</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="H49" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="I49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>208</v>
@@ -3247,37 +3336,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F50" s="9">
+      <c r="G50" s="9">
         <v>10</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="H50" s="9" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="K50" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="M50" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M50" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>208</v>
@@ -3286,37 +3378,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F51" s="9">
+      <c r="G51" s="9">
         <v>10</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="H51" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N51" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>208</v>
@@ -3325,37 +3417,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F52" s="9">
-        <v>100</v>
-      </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="9">
+        <v>10</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="I52" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>256</v>
+      <c r="J52" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>208</v>
@@ -3364,37 +3456,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F53" s="9">
+      <c r="G53" s="9">
         <v>100</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="H53" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="I53" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>183</v>
+      <c r="J53" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="M53" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="N53" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="N53" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>208</v>
@@ -3403,76 +3495,76 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F54" s="9">
+      <c r="G54" s="9">
         <v>100</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>189</v>
+      <c r="J54" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="M54" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="N54" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="N54" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>208</v>
       </c>
       <c r="E55" s="9" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F55" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
         <v>100</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="H55" s="9" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>63</v>
+        <v>74</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>208</v>
@@ -3481,37 +3573,37 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F56" s="9">
+      <c r="G56" s="9">
         <v>100</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="H56" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="I56" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="J56" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>51</v>
+      <c r="L56" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>208</v>
@@ -3520,37 +3612,37 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F57" s="9">
+      <c r="G57" s="9">
         <v>100</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="H57" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="I57" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="J57" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K57" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>41</v>
+      <c r="L57" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>208</v>
@@ -3559,37 +3651,37 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F58" s="9">
+      <c r="G58" s="9">
         <v>100</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="H58" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="I58" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I58" s="9" t="s">
+      <c r="J58" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K58" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>81</v>
+      <c r="L58" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N58" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>208</v>
@@ -3598,37 +3690,37 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F59" s="9">
+      <c r="G59" s="9">
         <v>100</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="H59" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="I59" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="J59" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K59" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>256</v>
+      <c r="L59" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="M59" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="N59" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N59" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>208</v>
@@ -3637,37 +3729,37 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F60" s="9">
+      <c r="G60" s="9">
         <v>100</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="H60" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="I60" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="J60" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K60" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L60" s="12" t="s">
-        <v>183</v>
+      <c r="L60" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="M60" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="N60" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="N60" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O60" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>208</v>
@@ -3676,76 +3768,76 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F61" s="9">
+      <c r="G61" s="9">
         <v>100</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="I61" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="J61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K61" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>189</v>
+      <c r="L61" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="M61" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="N61" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="N61" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>208</v>
       </c>
       <c r="E62" s="9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="9">
-        <v>10</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>54</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G62" s="9">
+        <v>100</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L62" s="12" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N62" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>208</v>
@@ -3754,37 +3846,37 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F63" s="9">
+      <c r="G63" s="9">
         <v>10</v>
       </c>
-      <c r="G63" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="H63" s="9" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K63" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L63" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L63" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M63" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N63" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N63" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>208</v>
@@ -3793,37 +3885,37 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F64" s="9">
-        <v>4</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>88</v>
+      <c r="G64" s="9">
+        <v>10</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L64" s="12" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>208</v>
@@ -3832,40 +3924,37 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F65" s="9">
-        <v>100</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>54</v>
+      <c r="G65" s="9">
+        <v>4</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L65" s="12" t="s">
-        <v>63</v>
+        <v>39</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N65" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="9" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>208</v>
@@ -3874,118 +3963,121 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F66" s="9">
-        <v>10</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>94</v>
+      <c r="G66" s="9">
+        <v>100</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J66" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="K66" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K66" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L66" s="12" t="s">
-        <v>41</v>
+      <c r="L66" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N66" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>208</v>
       </c>
       <c r="E67" s="9" t="b">
-        <f t="shared" ref="E67:E74" si="1">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F67" s="9">
-        <v>100</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>70</v>
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>10</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>60</v>
+        <v>95</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="K67" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="L67" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M67" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>208</v>
       </c>
       <c r="E68" s="9" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E68:E75" si="1">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F68" s="9">
+      <c r="G68" s="9">
         <v>100</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="H68" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="I68" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="J68" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K68" s="9" t="s">
+      <c r="L68" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="L68" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="M68" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>208</v>
@@ -3994,37 +4086,37 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F69" s="9">
+      <c r="G69" s="9">
         <v>100</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="H69" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="I69" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="J69" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K69" s="9" t="s">
+      <c r="L69" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N69" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="L69" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M69" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>208</v>
@@ -4033,37 +4125,37 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F70" s="9">
+      <c r="G70" s="9">
         <v>100</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="H70" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="I70" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="J70" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K70" s="9" t="s">
+      <c r="L70" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="M70" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N70" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>208</v>
@@ -4072,37 +4164,37 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F71" s="9">
+      <c r="G71" s="9">
         <v>100</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="H71" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="I71" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="J71" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="L71" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="M71" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N71" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>208</v>
@@ -4111,37 +4203,37 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F72" s="9">
+      <c r="G72" s="9">
         <v>100</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="I72" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="J72" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K72" s="9" t="s">
+      <c r="L72" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N72" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O72" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M72" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N72" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>208</v>
@@ -4150,37 +4242,37 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F73" s="9">
+      <c r="G73" s="9">
         <v>100</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="H73" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="I73" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="J73" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K73" s="9" t="s">
+      <c r="L73" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O73" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="M73" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N73" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>208</v>
@@ -4189,79 +4281,80 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F74" s="9">
+      <c r="G74" s="9">
         <v>100</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="H74" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="I74" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="J74" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K74" s="9" t="s">
+      <c r="L74" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M74" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N74" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O74" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="L74" s="12" t="s">
+      <c r="D75" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" s="9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G75" s="9">
+        <v>100</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M75" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="M74" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-    </row>
-    <row r="76" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="9" t="s">
+      <c r="N75" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+    </row>
+    <row r="77" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E76" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="9">
-        <v>4</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L76" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M76" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N76" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>210</v>
@@ -4269,37 +4362,37 @@
       <c r="E77" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F77" s="9">
-        <v>4</v>
-      </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="9">
+        <v>4</v>
+      </c>
+      <c r="H77" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="I77" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K77" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L77" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L77" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M77" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N77" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N77" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O77" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>210</v>
@@ -4307,37 +4400,37 @@
       <c r="E78" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F78" s="9">
-        <v>4</v>
-      </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="9">
+        <v>4</v>
+      </c>
+      <c r="H78" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H78" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="I78" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K78" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L78" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L78" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M78" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N78" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N78" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>210</v>
@@ -4345,37 +4438,37 @@
       <c r="E79" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F79" s="9">
-        <v>4</v>
-      </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="9">
+        <v>4</v>
+      </c>
+      <c r="H79" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="I79" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K79" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L79" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L79" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M79" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N79" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N79" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>210</v>
@@ -4383,37 +4476,37 @@
       <c r="E80" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F80" s="9">
-        <v>4</v>
-      </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="9">
+        <v>4</v>
+      </c>
+      <c r="H80" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H80" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="I80" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K80" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L80" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L80" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M80" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N80" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>210</v>
@@ -4421,37 +4514,37 @@
       <c r="E81" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F81" s="9">
-        <v>4</v>
-      </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="9">
+        <v>4</v>
+      </c>
+      <c r="H81" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H81" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="I81" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K81" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L81" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L81" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M81" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N81" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>210</v>
@@ -4459,37 +4552,37 @@
       <c r="E82" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F82" s="9">
-        <v>4</v>
-      </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="9">
+        <v>4</v>
+      </c>
+      <c r="H82" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H82" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="I82" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K82" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L82" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M82" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N82" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N82" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>210</v>
@@ -4497,37 +4590,37 @@
       <c r="E83" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F83" s="9">
-        <v>4</v>
-      </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="9">
+        <v>4</v>
+      </c>
+      <c r="H83" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H83" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="I83" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K83" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L83" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M83" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N83" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>210</v>
@@ -4535,37 +4628,37 @@
       <c r="E84" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F84" s="9">
-        <v>4</v>
-      </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="9">
+        <v>4</v>
+      </c>
+      <c r="H84" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="I84" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K84" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L84" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L84" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M84" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N84" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N84" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O84" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>210</v>
@@ -4573,37 +4666,37 @@
       <c r="E85" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F85" s="9">
-        <v>4</v>
-      </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="9">
+        <v>4</v>
+      </c>
+      <c r="H85" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H85" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="I85" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K85" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L85" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L85" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M85" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N85" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N85" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O85" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>210</v>
@@ -4611,37 +4704,37 @@
       <c r="E86" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F86" s="9">
-        <v>4</v>
-      </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="9">
+        <v>4</v>
+      </c>
+      <c r="H86" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H86" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="I86" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K86" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L86" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L86" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M86" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N86" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N86" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O86" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>210</v>
@@ -4649,37 +4742,37 @@
       <c r="E87" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F87" s="9">
-        <v>4</v>
-      </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="9">
+        <v>4</v>
+      </c>
+      <c r="H87" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H87" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="I87" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K87" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L87" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M87" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N87" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N87" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>210</v>
@@ -4687,37 +4780,37 @@
       <c r="E88" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F88" s="9">
-        <v>4</v>
-      </c>
-      <c r="G88" s="9" t="s">
+      <c r="G88" s="9">
+        <v>4</v>
+      </c>
+      <c r="H88" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H88" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="I88" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K88" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L88" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M88" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N88" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N88" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O88" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>210</v>
@@ -4725,37 +4818,37 @@
       <c r="E89" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F89" s="9">
-        <v>4</v>
-      </c>
-      <c r="G89" s="9" t="s">
+      <c r="G89" s="9">
+        <v>4</v>
+      </c>
+      <c r="H89" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H89" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="I89" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K89" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L89" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L89" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M89" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N89" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>210</v>
@@ -4763,79 +4856,79 @@
       <c r="E90" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F90" s="9">
-        <v>4</v>
-      </c>
-      <c r="G90" s="9" t="s">
+      <c r="G90" s="9">
+        <v>4</v>
+      </c>
+      <c r="H90" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H90" s="9" t="s">
+      <c r="I90" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M90" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N90" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O90" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="9">
+        <v>4</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I91" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="I90" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K90" s="9" t="s">
+      <c r="J91" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L91" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L90" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M90" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N90" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-    </row>
-    <row r="92" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="9" t="s">
+      <c r="M91" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N91" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O91" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+    </row>
+    <row r="93" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E92" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" s="9">
-        <v>4</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L92" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M92" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N92" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>209</v>
@@ -4843,37 +4936,37 @@
       <c r="E93" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F93" s="9">
-        <v>4</v>
-      </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="9">
+        <v>4</v>
+      </c>
+      <c r="H93" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H93" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="I93" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K93" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L93" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L93" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M93" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N93" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N93" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>209</v>
@@ -4881,37 +4974,37 @@
       <c r="E94" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F94" s="9">
-        <v>4</v>
-      </c>
-      <c r="G94" s="9" t="s">
+      <c r="G94" s="9">
+        <v>4</v>
+      </c>
+      <c r="H94" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H94" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="I94" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K94" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L94" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L94" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M94" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N94" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N94" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O94" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>209</v>
@@ -4919,37 +5012,37 @@
       <c r="E95" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F95" s="9">
-        <v>4</v>
-      </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="9">
+        <v>4</v>
+      </c>
+      <c r="H95" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H95" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="I95" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K95" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L95" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L95" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M95" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N95" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N95" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O95" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>209</v>
@@ -4957,37 +5050,37 @@
       <c r="E96" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F96" s="9">
-        <v>4</v>
-      </c>
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="9">
+        <v>4</v>
+      </c>
+      <c r="H96" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H96" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="I96" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K96" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L96" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L96" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M96" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N96" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N96" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O96" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>209</v>
@@ -4995,37 +5088,37 @@
       <c r="E97" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F97" s="9">
-        <v>4</v>
-      </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="9">
+        <v>4</v>
+      </c>
+      <c r="H97" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H97" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="I97" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K97" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L97" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L97" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M97" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N97" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N97" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>209</v>
@@ -5033,37 +5126,37 @@
       <c r="E98" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F98" s="9">
-        <v>4</v>
-      </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="9">
+        <v>4</v>
+      </c>
+      <c r="H98" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H98" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="I98" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K98" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L98" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L98" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M98" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N98" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N98" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O98" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>209</v>
@@ -5071,37 +5164,37 @@
       <c r="E99" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F99" s="9">
-        <v>4</v>
-      </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="9">
+        <v>4</v>
+      </c>
+      <c r="H99" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H99" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="I99" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K99" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L99" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L99" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M99" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N99" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N99" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O99" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>209</v>
@@ -5109,37 +5202,37 @@
       <c r="E100" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F100" s="9">
-        <v>4</v>
-      </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="9">
+        <v>4</v>
+      </c>
+      <c r="H100" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H100" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="I100" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K100" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L100" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L100" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M100" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N100" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N100" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O100" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>209</v>
@@ -5147,37 +5240,37 @@
       <c r="E101" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F101" s="9">
-        <v>4</v>
-      </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="9">
+        <v>4</v>
+      </c>
+      <c r="H101" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="I101" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K101" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L101" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L101" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M101" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N101" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N101" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O101" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>209</v>
@@ -5185,37 +5278,37 @@
       <c r="E102" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F102" s="9">
-        <v>4</v>
-      </c>
-      <c r="G102" s="9" t="s">
+      <c r="G102" s="9">
+        <v>4</v>
+      </c>
+      <c r="H102" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H102" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="I102" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K102" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L102" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L102" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M102" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N102" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N102" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O102" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>209</v>
@@ -5223,37 +5316,37 @@
       <c r="E103" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F103" s="9">
-        <v>4</v>
-      </c>
-      <c r="G103" s="9" t="s">
+      <c r="G103" s="9">
+        <v>4</v>
+      </c>
+      <c r="H103" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="I103" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K103" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L103" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L103" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M103" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N103" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N103" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O103" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>209</v>
@@ -5261,37 +5354,37 @@
       <c r="E104" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F104" s="9">
-        <v>4</v>
-      </c>
-      <c r="G104" s="9" t="s">
+      <c r="G104" s="9">
+        <v>4</v>
+      </c>
+      <c r="H104" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H104" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="I104" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K104" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L104" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L104" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M104" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N104" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N104" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O104" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>209</v>
@@ -5299,37 +5392,37 @@
       <c r="E105" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F105" s="9">
-        <v>4</v>
-      </c>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="9">
+        <v>4</v>
+      </c>
+      <c r="H105" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H105" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="I105" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K105" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L105" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L105" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="M105" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N105" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N105" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O105" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>209</v>
@@ -5337,37 +5430,75 @@
       <c r="E106" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F106" s="9">
-        <v>4</v>
-      </c>
-      <c r="G106" s="9" t="s">
+      <c r="G106" s="9">
+        <v>4</v>
+      </c>
+      <c r="H106" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H106" s="9" t="s">
+      <c r="I106" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M106" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N106" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O106" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" s="9">
+        <v>4</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I107" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="I106" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K106" s="9" t="s">
+      <c r="J107" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L107" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L106" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M106" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N106" s="9" t="s">
+      <c r="M107" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N107" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O107" s="9" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACC3C2F-404C-462E-876E-7D227B25087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB11BBF-E2A2-4524-AB99-D7ADA578C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="391">
   <si>
     <t>##var</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Room10</t>
   </si>
   <si>
-    <t>GamePlayTowerDefenseEndlessChallenge</t>
-  </si>
-  <si>
     <t>AllPlayersOneGroup</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>Room12</t>
   </si>
   <si>
-    <t>GamePlayTowerDefenseTutorialFirst</t>
-  </si>
-  <si>
     <t>TowerDefenseCfgTutorialFirst</t>
   </si>
   <si>
@@ -286,9 +280,6 @@
     <t>Challenge</t>
   </si>
   <si>
-    <t>GamePlayTowerDefensePVE</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Level1</t>
   </si>
   <si>
@@ -302,9 +293,6 @@
   </si>
   <si>
     <t>GamePlayBattleLevel_ARRoomPVP</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefensePVP</t>
   </si>
   <si>
     <t>TowerDefenseCfg2;5;0;600;0</t>
@@ -819,10 +807,6 @@
     <t>TowerDefenseCfg_Infinite;3;0;0;0</t>
   </si>
   <si>
-    <t>TowerDefenseCfgTutorialFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Infinite_Test;3;0;0;0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -947,41 +931,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>testZpbBattle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelTutorial_Challenge1_AR</t>
-  </si>
-  <si>
-    <t>LevelTutorial_Challenge2_AR</t>
-  </si>
-  <si>
-    <t>LevelTutorial_Challenge3_AR</t>
-  </si>
-  <si>
-    <t>LevelTutorial_Challenge4_AR</t>
-  </si>
-  <si>
-    <t>LevelTutorial_Challenge5_AR</t>
-  </si>
-  <si>
-    <t>LevelTutorial_Challenge1_NoAR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelTutorial_Challenge2_NoAR</t>
-  </si>
-  <si>
-    <t>LevelTutorial_Challenge3_NoAR</t>
-  </si>
-  <si>
-    <t>LevelTutorial_Challenge4_NoAR</t>
-  </si>
-  <si>
-    <t>LevelTutorial_Challenge5_NoAR</t>
-  </si>
-  <si>
     <t>GamePlayBattleLevel_Offline_Test</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -992,6 +941,323 @@
   <si>
     <t>TowerDefenseCfg_Offline;3;0;0;0</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_FirstInfinite;3;0;0;0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseEndlessChallengeMonster</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season1_Challenge1_AR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season1_Challenge2_AR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season1_Challenge3_AR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season1_Challenge4_AR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season1_Challenge5_AR</t>
+  </si>
+  <si>
+    <t>赛季1关卡1-AR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季1关卡2-AR</t>
+  </si>
+  <si>
+    <t>赛季1关卡3-AR</t>
+  </si>
+  <si>
+    <t>赛季1关卡4-AR</t>
+  </si>
+  <si>
+    <t>赛季1关卡5-AR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season1_Challenge1_NoAR</t>
+  </si>
+  <si>
+    <t>赛季1关卡1-NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season1_Challenge2_NoAR</t>
+  </si>
+  <si>
+    <t>赛季1关卡2-NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season1_Challenge3_NoAR</t>
+  </si>
+  <si>
+    <t>赛季1关卡3-NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season1_Challenge4_NoAR</t>
+  </si>
+  <si>
+    <t>赛季1关卡4-NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season1_Challenge5_NoAR</t>
+  </si>
+  <si>
+    <t>赛季1关卡5-NoAR</t>
+  </si>
+  <si>
+    <t>NoAR版本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge1</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge2</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge3</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge4</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge5</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge1_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge1</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge2_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge2</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge3_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge3</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge4_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge4</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge5_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge5</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge1_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge2_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge3_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge4_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge5_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge1_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge1</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge2_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge2</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge3_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge3</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge4_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge4</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge5_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge5</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge1_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge2_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge3_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge4_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge5_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge1_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge1</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge2_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge2</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge3_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge3</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge4_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge4</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge5_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge5</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge1_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge2_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge3_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge4_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge5_NoAR</t>
+  </si>
+  <si>
+    <t>赛季4关卡1-AR</t>
+  </si>
+  <si>
+    <t>赛季4关卡2-AR</t>
+  </si>
+  <si>
+    <t>赛季4关卡3-AR</t>
+  </si>
+  <si>
+    <t>赛季4关卡4-AR</t>
+  </si>
+  <si>
+    <t>赛季4关卡5-AR</t>
+  </si>
+  <si>
+    <t>赛季4关卡1-NoAR</t>
+  </si>
+  <si>
+    <t>赛季4关卡2-NoAR</t>
+  </si>
+  <si>
+    <t>赛季4关卡3-NoAR</t>
+  </si>
+  <si>
+    <t>赛季4关卡4-NoAR</t>
+  </si>
+  <si>
+    <t>赛季4关卡5-NoAR</t>
+  </si>
+  <si>
+    <t>赛季3关卡1-AR</t>
+  </si>
+  <si>
+    <t>赛季3关卡2-AR</t>
+  </si>
+  <si>
+    <t>赛季3关卡3-AR</t>
+  </si>
+  <si>
+    <t>赛季3关卡4-AR</t>
+  </si>
+  <si>
+    <t>赛季3关卡5-AR</t>
+  </si>
+  <si>
+    <t>赛季3关卡1-NoAR</t>
+  </si>
+  <si>
+    <t>赛季3关卡2-NoAR</t>
+  </si>
+  <si>
+    <t>赛季3关卡3-NoAR</t>
+  </si>
+  <si>
+    <t>赛季3关卡4-NoAR</t>
+  </si>
+  <si>
+    <t>赛季3关卡5-NoAR</t>
+  </si>
+  <si>
+    <t>赛季2关卡1-AR</t>
+  </si>
+  <si>
+    <t>赛季2关卡2-AR</t>
+  </si>
+  <si>
+    <t>赛季2关卡3-AR</t>
+  </si>
+  <si>
+    <t>赛季2关卡4-AR</t>
+  </si>
+  <si>
+    <t>赛季2关卡5-AR</t>
+  </si>
+  <si>
+    <t>赛季2关卡1-NoAR</t>
+  </si>
+  <si>
+    <t>赛季2关卡2-NoAR</t>
+  </si>
+  <si>
+    <t>赛季2关卡3-NoAR</t>
+  </si>
+  <si>
+    <t>赛季2关卡4-NoAR</t>
+  </si>
+  <si>
+    <t>赛季2关卡5-NoAR</t>
   </si>
 </sst>
 </file>
@@ -1491,13 +1757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O107"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="E130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1536,10 +1802,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>5</v>
@@ -1606,7 +1872,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
@@ -1670,7 +1936,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -1702,13 +1968,13 @@
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E6" s="9" t="b">
         <f>FALSE()</f>
@@ -1718,36 +1984,36 @@
         <v>4</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E7" s="9" t="b">
         <f>FALSE()</f>
@@ -1757,36 +2023,36 @@
         <v>4</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E8" s="9" t="b">
         <f>FALSE()</f>
@@ -1796,36 +2062,36 @@
         <v>6</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E9" s="9" t="b">
         <f>FALSE()</f>
@@ -1835,36 +2101,36 @@
         <v>4</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="J9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E10" s="9" t="b">
         <f>FALSE()</f>
@@ -1874,36 +2140,36 @@
         <v>4</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M10" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E11" s="9" t="b">
         <f>FALSE()</f>
@@ -1913,25 +2179,25 @@
         <v>6</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1940,13 +2206,13 @@
     </row>
     <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E13" s="9" t="b">
         <f>FALSE()</f>
@@ -1956,36 +2222,36 @@
         <v>4</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E14" s="9" t="b">
         <f>FALSE()</f>
@@ -1995,36 +2261,36 @@
         <v>4</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E15" s="9" t="b">
         <f>FALSE()</f>
@@ -2034,36 +2300,36 @@
         <v>6</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E16" s="9" t="b">
         <f>FALSE()</f>
@@ -2073,36 +2339,36 @@
         <v>4</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="J16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E17" s="9" t="b">
         <f>FALSE()</f>
@@ -2112,36 +2378,36 @@
         <v>4</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="J17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E18" s="9" t="b">
         <f>FALSE()</f>
@@ -2151,25 +2417,25 @@
         <v>6</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="J18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M18" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2178,13 +2444,13 @@
     </row>
     <row r="20" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E20" s="9" t="b">
         <v>0</v>
@@ -2193,282 +2459,264 @@
         <v>4</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="J20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M20" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E21" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>289</v>
-      </c>
       <c r="G21" s="9">
         <v>4</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M21" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E22" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>295</v>
-      </c>
       <c r="G22" s="9">
         <v>4</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M22" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E23" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>296</v>
-      </c>
       <c r="G23" s="9">
         <v>4</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M23" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E24" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>297</v>
-      </c>
       <c r="G24" s="9">
         <v>4</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M24" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E25" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>298</v>
-      </c>
       <c r="G25" s="9">
         <v>4</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M25" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E26" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="G26" s="9">
         <v>4</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M26" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E27" s="9" t="b">
         <v>0</v>
@@ -2477,36 +2725,36 @@
         <v>4</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M27" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E28" s="9" t="b">
         <v>0</v>
@@ -2515,36 +2763,36 @@
         <v>4</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E29" s="9" t="b">
         <v>0</v>
@@ -2553,36 +2801,36 @@
         <v>4</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M29" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E30" s="9" t="b">
         <v>0</v>
@@ -2591,36 +2839,36 @@
         <v>4</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E31" s="9" t="b">
         <v>0</v>
@@ -2629,241 +2877,226 @@
         <v>4</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M31" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E32" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>290</v>
-      </c>
       <c r="G32" s="9">
         <v>4</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E33" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>291</v>
-      </c>
       <c r="G33" s="9">
         <v>4</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E34" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>292</v>
-      </c>
       <c r="G34" s="9">
         <v>4</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E35" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>293</v>
-      </c>
       <c r="G35" s="9">
         <v>4</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E36" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>294</v>
-      </c>
       <c r="G36" s="9">
         <v>4</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E37" s="9" t="b">
         <v>0</v>
@@ -2872,36 +3105,36 @@
         <v>4</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E38" s="9" t="b">
         <v>0</v>
@@ -2910,36 +3143,36 @@
         <v>4</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E39" s="9" t="b">
         <v>0</v>
@@ -2948,36 +3181,36 @@
         <v>4</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E40" s="9" t="b">
         <v>0</v>
@@ -2986,36 +3219,36 @@
         <v>4</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E41" s="9" t="b">
         <v>0</v>
@@ -3024,25 +3257,25 @@
         <v>4</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3051,13 +3284,13 @@
     </row>
     <row r="43" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E43" s="9" t="b">
         <f>FALSE()</f>
@@ -3067,25 +3300,25 @@
         <v>4</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L43" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M43" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3096,7 +3329,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E44" s="9" t="b">
         <f t="shared" ref="E44:E55" si="0">FALSE()</f>
@@ -3106,36 +3339,36 @@
         <v>10</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J44" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M44" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="D45" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E45" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3145,36 +3378,36 @@
         <v>10</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J45" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L45" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M45" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="D46" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E46" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3184,36 +3417,36 @@
         <v>10</v>
       </c>
       <c r="H46" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="M46" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="N46" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E47" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3223,36 +3456,36 @@
         <v>10</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J47" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L47" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M47" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E48" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3262,36 +3495,36 @@
         <v>10</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J48" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L48" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M48" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E49" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3301,36 +3534,36 @@
         <v>10</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M49" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="N49" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E50" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3340,39 +3573,39 @@
         <v>10</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J50" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="L50" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E51" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3382,36 +3615,36 @@
         <v>10</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J51" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L51" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="M51" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E52" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3421,36 +3654,36 @@
         <v>10</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J52" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L52" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M52" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E53" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3460,36 +3693,36 @@
         <v>100</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E54" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3499,36 +3732,36 @@
         <v>100</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E55" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3538,36 +3771,36 @@
         <v>100</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E56" s="9" t="b">
         <f>TRUE()</f>
@@ -3577,36 +3810,36 @@
         <v>100</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J56" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L56" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="M56" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E57" s="9" t="b">
         <f>TRUE()</f>
@@ -3616,36 +3849,36 @@
         <v>100</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E58" s="9" t="b">
         <f>TRUE()</f>
@@ -3655,36 +3888,36 @@
         <v>100</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E59" s="9" t="b">
         <f>TRUE()</f>
@@ -3694,36 +3927,36 @@
         <v>100</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E60" s="9" t="b">
         <f>TRUE()</f>
@@ -3733,36 +3966,36 @@
         <v>100</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E61" s="9" t="b">
         <f>TRUE()</f>
@@ -3772,36 +4005,36 @@
         <v>100</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E62" s="9" t="b">
         <f>TRUE()</f>
@@ -3811,36 +4044,36 @@
         <v>100</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E63" s="9" t="b">
         <f>FALSE()</f>
@@ -3850,36 +4083,36 @@
         <v>10</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E64" s="9" t="b">
         <f>FALSE()</f>
@@ -3889,36 +4122,36 @@
         <v>10</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E65" s="9" t="b">
         <f>FALSE()</f>
@@ -3928,36 +4161,36 @@
         <v>4</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J65" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L65" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M65" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E66" s="9" t="b">
         <f>FALSE()</f>
@@ -3967,39 +4200,39 @@
         <v>100</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J66" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K66" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K66" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="L66" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E67" s="9" t="b">
         <f>FALSE()</f>
@@ -4009,39 +4242,39 @@
         <v>10</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J67" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K67" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K67" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="L67" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E68" s="9" t="b">
         <f t="shared" ref="E68:E75" si="1">TRUE()</f>
@@ -4051,36 +4284,36 @@
         <v>100</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N68" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E69" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4090,36 +4323,36 @@
         <v>100</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E70" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4129,36 +4362,36 @@
         <v>100</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E71" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4168,36 +4401,36 @@
         <v>100</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E72" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4207,36 +4440,36 @@
         <v>100</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N72" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E73" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4246,36 +4479,36 @@
         <v>100</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E74" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4285,36 +4518,36 @@
         <v>100</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E75" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4324,25 +4557,25 @@
         <v>100</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4351,13 +4584,13 @@
     </row>
     <row r="77" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E77" s="9" t="b">
         <v>0</v>
@@ -4366,36 +4599,36 @@
         <v>4</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J77" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L77" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L77" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M77" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N77" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E78" s="9" t="b">
         <v>0</v>
@@ -4404,36 +4637,36 @@
         <v>4</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J78" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L78" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L78" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M78" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N78" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E79" s="9" t="b">
         <v>0</v>
@@ -4442,36 +4675,36 @@
         <v>4</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J79" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L79" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M79" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N79" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E80" s="9" t="b">
         <v>0</v>
@@ -4480,36 +4713,36 @@
         <v>4</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J80" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L80" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L80" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M80" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N80" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E81" s="9" t="b">
         <v>0</v>
@@ -4518,36 +4751,36 @@
         <v>4</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J81" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L81" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L81" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M81" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N81" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E82" s="9" t="b">
         <v>0</v>
@@ -4556,36 +4789,36 @@
         <v>4</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J82" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L82" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M82" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N82" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E83" s="9" t="b">
         <v>0</v>
@@ -4594,36 +4827,36 @@
         <v>4</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J83" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L83" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L83" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M83" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N83" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E84" s="9" t="b">
         <v>0</v>
@@ -4632,36 +4865,36 @@
         <v>4</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J84" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L84" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M84" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N84" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E85" s="9" t="b">
         <v>0</v>
@@ -4670,36 +4903,36 @@
         <v>4</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J85" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L85" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L85" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M85" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N85" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E86" s="9" t="b">
         <v>0</v>
@@ -4708,36 +4941,36 @@
         <v>4</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J86" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L86" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M86" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N86" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E87" s="9" t="b">
         <v>0</v>
@@ -4746,36 +4979,36 @@
         <v>4</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J87" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L87" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L87" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M87" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N87" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E88" s="9" t="b">
         <v>0</v>
@@ -4784,36 +5017,36 @@
         <v>4</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J88" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L88" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L88" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M88" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N88" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E89" s="9" t="b">
         <v>0</v>
@@ -4822,37 +5055,37 @@
         <v>4</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J89" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L89" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L89" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M89" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N89" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C90" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>210</v>
-      </c>
       <c r="E90" s="9" t="b">
         <v>0</v>
       </c>
@@ -4860,36 +5093,36 @@
         <v>4</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J90" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L90" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L90" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M90" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N90" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O90" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E91" s="9" t="b">
         <v>0</v>
@@ -4898,25 +5131,25 @@
         <v>4</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J91" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L91" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L91" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M91" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N91" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4925,13 +5158,13 @@
     </row>
     <row r="93" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E93" s="9" t="b">
         <v>0</v>
@@ -4940,36 +5173,36 @@
         <v>4</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N93" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O93" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E94" s="9" t="b">
         <v>0</v>
@@ -4978,36 +5211,36 @@
         <v>4</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N94" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O94" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E95" s="9" t="b">
         <v>0</v>
@@ -5016,36 +5249,36 @@
         <v>4</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N95" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E96" s="9" t="b">
         <v>0</v>
@@ -5054,36 +5287,36 @@
         <v>4</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N96" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E97" s="9" t="b">
         <v>0</v>
@@ -5092,36 +5325,36 @@
         <v>4</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N97" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E98" s="9" t="b">
         <v>0</v>
@@ -5130,36 +5363,36 @@
         <v>4</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N98" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E99" s="9" t="b">
         <v>0</v>
@@ -5168,36 +5401,36 @@
         <v>4</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N99" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E100" s="9" t="b">
         <v>0</v>
@@ -5206,36 +5439,36 @@
         <v>4</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N100" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O100" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E101" s="9" t="b">
         <v>0</v>
@@ -5244,36 +5477,36 @@
         <v>4</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M101" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N101" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E102" s="9" t="b">
         <v>0</v>
@@ -5282,36 +5515,36 @@
         <v>4</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E103" s="9" t="b">
         <v>0</v>
@@ -5320,36 +5553,36 @@
         <v>4</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N103" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O103" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E104" s="9" t="b">
         <v>0</v>
@@ -5358,37 +5591,37 @@
         <v>4</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N104" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O104" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C105" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="E105" s="9" t="b">
         <v>0</v>
       </c>
@@ -5396,36 +5629,36 @@
         <v>4</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M105" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N105" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O105" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E106" s="9" t="b">
         <v>0</v>
@@ -5434,36 +5667,36 @@
         <v>4</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M106" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N106" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E107" s="9" t="b">
         <v>0</v>
@@ -5472,25 +5705,1545 @@
         <v>4</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="J107" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M107" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N107" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O107" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B109" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" s="10">
+        <v>4</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M109" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N109" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O109" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B110" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E110" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" s="10">
+        <v>4</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M110" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N110" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O110" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B111" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E111" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" s="10">
+        <v>4</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M111" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N111" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O111" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B112" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E112" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" s="10">
+        <v>4</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L112" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M112" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N112" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O112" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B113" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E113" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" s="10">
+        <v>4</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M113" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N113" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O113" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B114" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E114" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" s="10">
+        <v>4</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L114" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L107" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M107" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N107" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O107" s="9" t="s">
-        <v>43</v>
+      <c r="M114" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N114" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O114" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B115" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E115" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" s="10">
+        <v>4</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L115" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M115" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N115" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O115" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B116" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" s="10">
+        <v>4</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M116" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N116" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O116" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B117" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E117" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" s="10">
+        <v>4</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M117" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N117" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O117" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B118" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E118" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" s="10">
+        <v>4</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M118" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N118" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O118" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B120" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E120" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" s="10">
+        <v>4</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M120" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N120" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O120" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B121" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E121" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" s="10">
+        <v>4</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M121" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N121" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O121" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B122" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E122" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" s="10">
+        <v>4</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M122" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N122" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O122" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B123" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E123" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" s="10">
+        <v>4</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M123" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N123" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O123" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B124" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" s="10">
+        <v>4</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L124" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M124" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N124" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O124" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B125" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E125" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" s="10">
+        <v>4</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M125" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N125" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O125" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B126" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E126" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" s="10">
+        <v>4</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M126" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N126" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O126" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B127" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E127" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" s="10">
+        <v>4</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M127" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N127" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O127" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B128" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E128" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" s="10">
+        <v>4</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L128" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M128" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N128" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O128" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B129" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E129" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" s="10">
+        <v>4</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L129" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M129" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N129" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O129" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B131" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" s="10">
+        <v>4</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M131" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N131" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O131" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B132" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" s="10">
+        <v>4</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L132" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M132" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N132" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O132" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B133" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G133" s="10">
+        <v>4</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N133" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O133" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B134" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G134" s="10">
+        <v>4</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L134" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M134" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N134" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O134" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B135" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" s="10">
+        <v>4</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L135" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M135" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N135" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O135" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B136" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" s="10">
+        <v>4</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L136" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M136" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N136" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O136" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B137" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" s="10">
+        <v>4</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M137" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N137" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O137" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B138" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" s="10">
+        <v>4</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L138" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M138" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N138" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O138" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B139" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" s="10">
+        <v>4</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M139" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N139" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O139" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B140" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E140" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" s="10">
+        <v>4</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M140" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N140" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O140" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B142" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E142" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" s="10">
+        <v>4</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M142" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N142" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O142" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B143" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E143" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" s="10">
+        <v>4</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M143" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N143" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O143" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B144" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E144" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" s="10">
+        <v>4</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L144" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M144" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N144" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O144" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B145" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E145" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" s="10">
+        <v>4</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L145" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M145" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N145" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O145" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B146" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E146" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" s="10">
+        <v>4</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M146" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N146" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O146" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B147" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E147" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" s="10">
+        <v>4</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M147" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N147" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O147" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B148" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E148" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" s="10">
+        <v>4</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M148" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N148" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O148" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B149" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E149" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" s="10">
+        <v>4</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L149" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M149" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N149" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O149" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B150" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E150" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" s="10">
+        <v>4</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M150" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N150" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O150" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B151" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E151" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" s="10">
+        <v>4</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M151" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N151" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O151" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB11BBF-E2A2-4524-AB99-D7ADA578C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE5230-859D-47A1-A6B6-BC20FA236000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="347">
   <si>
     <t>##var</t>
   </si>
@@ -274,15 +274,6 @@
     <t>GamePlayBattleLevel_ARRoomPK</t>
   </si>
   <si>
-    <t>GamePlayBattleLevel_Challenge_Level1</t>
-  </si>
-  <si>
-    <t>Challenge</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level1</t>
-  </si>
-  <si>
     <t>GamePlayBattleLevel_RoomTest1</t>
   </si>
   <si>
@@ -370,103 +361,16 @@
     <t>32.4790115,0.091531992,25.6486301;5.30363846,0.091531992,25.3778915;-11.3281498,0.091531992,19.4281769;-21.7915726,0.091531992,7.8240509;-23.7534695,0.091531992,-10.6342239;6.51137161,0.091531992,-33.9889832;-4.81398869,0.091531992,-24.2305851;-11.3161564,0.091531992,-15.9668636;-22.8398285,0.091531992,-8.59755523</t>
   </si>
   <si>
-    <t>ChallengeLevel1</t>
-  </si>
-  <si>
-    <t>ChallengeLevel2</t>
-  </si>
-  <si>
     <t>挑战关卡2</t>
   </si>
   <si>
-    <t>TowerDefenseCfg_Level2</t>
-  </si>
-  <si>
-    <t>ChallengeLevel3</t>
-  </si>
-  <si>
     <t>挑战关卡3</t>
   </si>
   <si>
-    <t>TowerDefenseCfg_Level3</t>
-  </si>
-  <si>
-    <t>ChallengeLevel4</t>
-  </si>
-  <si>
     <t>挑战关卡4</t>
   </si>
   <si>
-    <t>TowerDefenseCfg_Level4</t>
-  </si>
-  <si>
-    <t>ChallengeLevel5</t>
-  </si>
-  <si>
     <t>挑战关卡5</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level5</t>
-  </si>
-  <si>
-    <t>ChallengeLevel6</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level6</t>
-  </si>
-  <si>
-    <t>ChallengeLevel7</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level7</t>
-  </si>
-  <si>
-    <t>ChallengeLevel8</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level8</t>
-  </si>
-  <si>
-    <t>ChallengeLevel9</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level9</t>
-  </si>
-  <si>
-    <t>ChallengeLevel10</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level10</t>
-  </si>
-  <si>
-    <t>ChallengeLevel11</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level11</t>
-  </si>
-  <si>
-    <t>ChallengeLevel12</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level12</t>
-  </si>
-  <si>
-    <t>ChallengeLevel13</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level13</t>
-  </si>
-  <si>
-    <t>ChallengeLevel14</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level14</t>
-  </si>
-  <si>
-    <t>ChallengeLevel15</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level15</t>
   </si>
   <si>
     <t>ARRoomPVP</t>
@@ -477,52 +381,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>AR_ChallengeLevel1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel2</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel3</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel4</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel5</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel6</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel7</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel8</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel9</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel10</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel11</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel12</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel13</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel14</t>
-  </si>
-  <si>
-    <t>AR_ChallengeLevel15</t>
-  </si>
-  <si>
     <t>zpbTest</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -613,51 +471,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>（单卡教学）挑战关卡1</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡2</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡3</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡4</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡5</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡6</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡7</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡8</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡9</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡10</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡11</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡12</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡13</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡14</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡15</t>
-  </si>
-  <si>
     <t>调试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -943,10 +756,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>TowerDefenseCfg_FirstInfinite;3;0;0;0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>GamePlayTowerDefenseEndlessChallengeMonster</t>
   </si>
   <si>
@@ -1016,248 +825,358 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TowerDefenseCfg_Level15</t>
+    <t>TowerDefenseCfg_Season1_Challenge1</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge2</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge3</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge4</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge5</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge1_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge1</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge2_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge2</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge3_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge3</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge4_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge4</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge5_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge5</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge1_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge2_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge3_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge4_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_Challenge5_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge1_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge1</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge2_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge2</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge3_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge3</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge4_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge4</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge5_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge5</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge1_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge2_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge3_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge4_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_Challenge5_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge1_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge1</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge2_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge2</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge3_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge3</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge4_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge4</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge5_AR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge5</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge1_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge2_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge3_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge4_NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_Challenge5_NoAR</t>
+  </si>
+  <si>
+    <t>赛季4关卡1-AR</t>
+  </si>
+  <si>
+    <t>赛季4关卡2-AR</t>
+  </si>
+  <si>
+    <t>赛季4关卡3-AR</t>
+  </si>
+  <si>
+    <t>赛季4关卡4-AR</t>
+  </si>
+  <si>
+    <t>赛季4关卡5-AR</t>
+  </si>
+  <si>
+    <t>赛季4关卡1-NoAR</t>
+  </si>
+  <si>
+    <t>赛季4关卡2-NoAR</t>
+  </si>
+  <si>
+    <t>赛季4关卡3-NoAR</t>
+  </si>
+  <si>
+    <t>赛季4关卡4-NoAR</t>
+  </si>
+  <si>
+    <t>赛季4关卡5-NoAR</t>
+  </si>
+  <si>
+    <t>赛季3关卡1-AR</t>
+  </si>
+  <si>
+    <t>赛季3关卡2-AR</t>
+  </si>
+  <si>
+    <t>赛季3关卡3-AR</t>
+  </si>
+  <si>
+    <t>赛季3关卡4-AR</t>
+  </si>
+  <si>
+    <t>赛季3关卡5-AR</t>
+  </si>
+  <si>
+    <t>赛季3关卡1-NoAR</t>
+  </si>
+  <si>
+    <t>赛季3关卡2-NoAR</t>
+  </si>
+  <si>
+    <t>赛季3关卡3-NoAR</t>
+  </si>
+  <si>
+    <t>赛季3关卡4-NoAR</t>
+  </si>
+  <si>
+    <t>赛季3关卡5-NoAR</t>
+  </si>
+  <si>
+    <t>赛季2关卡1-AR</t>
+  </si>
+  <si>
+    <t>赛季2关卡2-AR</t>
+  </si>
+  <si>
+    <t>赛季2关卡3-AR</t>
+  </si>
+  <si>
+    <t>赛季2关卡4-AR</t>
+  </si>
+  <si>
+    <t>赛季2关卡5-AR</t>
+  </si>
+  <si>
+    <t>赛季2关卡1-NoAR</t>
+  </si>
+  <si>
+    <t>赛季2关卡2-NoAR</t>
+  </si>
+  <si>
+    <t>赛季2关卡3-NoAR</t>
+  </si>
+  <si>
+    <t>赛季2关卡4-NoAR</t>
+  </si>
+  <si>
+    <t>赛季2关卡5-NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season1_EndlessChallenge_AR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_EndlessChallenge_AR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_EndlessChallenge_AR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_EndlessChallenge_AR</t>
+  </si>
+  <si>
+    <r>
+      <t>赛季1无限模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-AR</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TowerDefenseCfg_Season1_Challenge1</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season1_Challenge2</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season1_Challenge3</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season1_Challenge4</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season1_Challenge5</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season2_Challenge1_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season2_Challenge1</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season2_Challenge2_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season2_Challenge2</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season2_Challenge3_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season2_Challenge3</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season2_Challenge4_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season2_Challenge4</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season2_Challenge5_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season2_Challenge5</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season2_Challenge1_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season2_Challenge2_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season2_Challenge3_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season2_Challenge4_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season2_Challenge5_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season3_Challenge1_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season3_Challenge1</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season3_Challenge2_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season3_Challenge2</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season3_Challenge3_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season3_Challenge3</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season3_Challenge4_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season3_Challenge4</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season3_Challenge5_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season3_Challenge5</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season3_Challenge1_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season3_Challenge2_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season3_Challenge3_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season3_Challenge4_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season3_Challenge5_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season4_Challenge1_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season4_Challenge1</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season4_Challenge2_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season4_Challenge2</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season4_Challenge3_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season4_Challenge3</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season4_Challenge4_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season4_Challenge4</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season4_Challenge5_AR</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season4_Challenge5</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season4_Challenge1_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season4_Challenge2_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season4_Challenge3_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season4_Challenge4_NoAR</t>
-  </si>
-  <si>
-    <t>GamePlayBattleLevel_Season4_Challenge5_NoAR</t>
-  </si>
-  <si>
-    <t>赛季4关卡1-AR</t>
-  </si>
-  <si>
-    <t>赛季4关卡2-AR</t>
-  </si>
-  <si>
-    <t>赛季4关卡3-AR</t>
-  </si>
-  <si>
-    <t>赛季4关卡4-AR</t>
-  </si>
-  <si>
-    <t>赛季4关卡5-AR</t>
-  </si>
-  <si>
-    <t>赛季4关卡1-NoAR</t>
-  </si>
-  <si>
-    <t>赛季4关卡2-NoAR</t>
-  </si>
-  <si>
-    <t>赛季4关卡3-NoAR</t>
-  </si>
-  <si>
-    <t>赛季4关卡4-NoAR</t>
-  </si>
-  <si>
-    <t>赛季4关卡5-NoAR</t>
-  </si>
-  <si>
-    <t>赛季3关卡1-AR</t>
-  </si>
-  <si>
-    <t>赛季3关卡2-AR</t>
-  </si>
-  <si>
-    <t>赛季3关卡3-AR</t>
-  </si>
-  <si>
-    <t>赛季3关卡4-AR</t>
-  </si>
-  <si>
-    <t>赛季3关卡5-AR</t>
-  </si>
-  <si>
-    <t>赛季3关卡1-NoAR</t>
-  </si>
-  <si>
-    <t>赛季3关卡2-NoAR</t>
-  </si>
-  <si>
-    <t>赛季3关卡3-NoAR</t>
-  </si>
-  <si>
-    <t>赛季3关卡4-NoAR</t>
-  </si>
-  <si>
-    <t>赛季3关卡5-NoAR</t>
-  </si>
-  <si>
-    <t>赛季2关卡1-AR</t>
-  </si>
-  <si>
-    <t>赛季2关卡2-AR</t>
-  </si>
-  <si>
-    <t>赛季2关卡3-AR</t>
-  </si>
-  <si>
-    <t>赛季2关卡4-AR</t>
-  </si>
-  <si>
-    <t>赛季2关卡5-AR</t>
-  </si>
-  <si>
-    <t>赛季2关卡1-NoAR</t>
-  </si>
-  <si>
-    <t>赛季2关卡2-NoAR</t>
-  </si>
-  <si>
-    <t>赛季2关卡3-NoAR</t>
-  </si>
-  <si>
-    <t>赛季2关卡4-NoAR</t>
-  </si>
-  <si>
-    <t>赛季2关卡5-NoAR</t>
+    <r>
+      <t>赛季2无限模式-AR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>赛季3无限模式-AR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>赛季4无限模式-AR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season1_EndlessChallenge_NoAR</t>
+  </si>
+  <si>
+    <t>赛季1无限模式-NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season2_EndlessChallenge_NoAR</t>
+  </si>
+  <si>
+    <t>赛季2无限模式-NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season3_EndlessChallenge_NoAR</t>
+  </si>
+  <si>
+    <t>赛季3无限模式-NoAR</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Season4_EndlessChallenge_NoAR</t>
+  </si>
+  <si>
+    <t>赛季4无限模式-NoAR</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Infinite;3;0;0;0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Infinite;3;0;0;0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Infinite;3;0;0;0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Infinite;12;0;0;0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1368,7 +1287,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1404,6 +1323,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1757,13 +1679,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O151"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="E130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="E111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J152" sqref="J152"/>
+      <selection pane="bottomRight" activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1775,7 +1697,8 @@
     <col min="5" max="5" width="13.125" style="10" customWidth="1"/>
     <col min="6" max="6" width="26.25" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="10" customWidth="1"/>
-    <col min="8" max="9" width="37.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="45.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.125" style="10" customWidth="1"/>
     <col min="10" max="10" width="19" style="10" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="10" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="10" customWidth="1"/>
@@ -1802,19 +1725,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="14"/>
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1872,19 +1795,19 @@
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1936,7 +1859,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -1968,13 +1891,13 @@
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="E6" s="9" t="b">
         <f>FALSE()</f>
@@ -1984,10 +1907,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>287</v>
+        <v>52</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>38</v>
@@ -2007,13 +1930,13 @@
     </row>
     <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="E7" s="9" t="b">
         <f>FALSE()</f>
@@ -2023,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>38</v>
@@ -2046,13 +1969,13 @@
     </row>
     <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="E8" s="9" t="b">
         <f>FALSE()</f>
@@ -2062,10 +1985,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>38</v>
@@ -2085,13 +2008,13 @@
     </row>
     <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="E9" s="9" t="b">
         <f>FALSE()</f>
@@ -2101,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>288</v>
+        <v>52</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>287</v>
+        <v>151</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>38</v>
@@ -2124,13 +2047,13 @@
     </row>
     <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="E10" s="9" t="b">
         <f>FALSE()</f>
@@ -2140,10 +2063,10 @@
         <v>4</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>38</v>
@@ -2163,13 +2086,13 @@
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="E11" s="9" t="b">
         <f>FALSE()</f>
@@ -2179,10 +2102,10 @@
         <v>6</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>38</v>
@@ -2206,13 +2129,13 @@
     </row>
     <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="E13" s="9" t="b">
         <f>FALSE()</f>
@@ -2222,10 +2145,10 @@
         <v>4</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>38</v>
@@ -2245,13 +2168,13 @@
     </row>
     <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="E14" s="9" t="b">
         <f>FALSE()</f>
@@ -2261,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>38</v>
@@ -2284,13 +2207,13 @@
     </row>
     <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="E15" s="9" t="b">
         <f>FALSE()</f>
@@ -2300,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>38</v>
@@ -2323,13 +2246,13 @@
     </row>
     <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="E16" s="9" t="b">
         <f>FALSE()</f>
@@ -2339,10 +2262,10 @@
         <v>4</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>38</v>
@@ -2362,13 +2285,13 @@
     </row>
     <row r="17" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="E17" s="9" t="b">
         <f>FALSE()</f>
@@ -2378,10 +2301,10 @@
         <v>4</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>38</v>
@@ -2401,13 +2324,13 @@
     </row>
     <row r="18" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="E18" s="9" t="b">
         <f>FALSE()</f>
@@ -2417,10 +2340,10 @@
         <v>6</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>38</v>
@@ -2444,13 +2367,13 @@
     </row>
     <row r="20" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E20" s="9" t="b">
         <v>0</v>
@@ -2459,10 +2382,10 @@
         <v>4</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>38</v>
@@ -2482,13 +2405,13 @@
     </row>
     <row r="21" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E21" s="9" t="b">
         <v>0</v>
@@ -2497,10 +2420,10 @@
         <v>4</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>38</v>
@@ -2520,13 +2443,13 @@
     </row>
     <row r="22" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E22" s="9" t="b">
         <v>0</v>
@@ -2538,7 +2461,7 @@
         <v>52</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>38</v>
@@ -2558,13 +2481,13 @@
     </row>
     <row r="23" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E23" s="9" t="b">
         <v>0</v>
@@ -2576,7 +2499,7 @@
         <v>52</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>38</v>
@@ -2596,13 +2519,13 @@
     </row>
     <row r="24" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E24" s="9" t="b">
         <v>0</v>
@@ -2614,7 +2537,7 @@
         <v>52</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>38</v>
@@ -2634,13 +2557,13 @@
     </row>
     <row r="25" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E25" s="9" t="b">
         <v>0</v>
@@ -2652,7 +2575,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>38</v>
@@ -2672,13 +2595,13 @@
     </row>
     <row r="26" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E26" s="9" t="b">
         <v>0</v>
@@ -2690,7 +2613,7 @@
         <v>52</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>38</v>
@@ -2710,13 +2633,13 @@
     </row>
     <row r="27" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E27" s="9" t="b">
         <v>0</v>
@@ -2728,7 +2651,7 @@
         <v>52</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>38</v>
@@ -2748,13 +2671,13 @@
     </row>
     <row r="28" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E28" s="9" t="b">
         <v>0</v>
@@ -2766,7 +2689,7 @@
         <v>52</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>38</v>
@@ -2786,13 +2709,13 @@
     </row>
     <row r="29" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E29" s="9" t="b">
         <v>0</v>
@@ -2804,7 +2727,7 @@
         <v>52</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>38</v>
@@ -2824,13 +2747,13 @@
     </row>
     <row r="30" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E30" s="9" t="b">
         <v>0</v>
@@ -2842,7 +2765,7 @@
         <v>52</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>38</v>
@@ -2862,13 +2785,13 @@
     </row>
     <row r="31" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E31" s="9" t="b">
         <v>0</v>
@@ -2880,7 +2803,7 @@
         <v>52</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>38</v>
@@ -2900,13 +2823,13 @@
     </row>
     <row r="32" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E32" s="9" t="b">
         <v>0</v>
@@ -2918,7 +2841,7 @@
         <v>52</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>38</v>
@@ -2938,13 +2861,13 @@
     </row>
     <row r="33" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E33" s="9" t="b">
         <v>0</v>
@@ -2956,7 +2879,7 @@
         <v>52</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>38</v>
@@ -2976,13 +2899,13 @@
     </row>
     <row r="34" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E34" s="9" t="b">
         <v>0</v>
@@ -2994,7 +2917,7 @@
         <v>52</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>38</v>
@@ -3014,13 +2937,13 @@
     </row>
     <row r="35" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E35" s="9" t="b">
         <v>0</v>
@@ -3032,7 +2955,7 @@
         <v>52</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>38</v>
@@ -3052,13 +2975,13 @@
     </row>
     <row r="36" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E36" s="9" t="b">
         <v>0</v>
@@ -3070,7 +2993,7 @@
         <v>52</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>38</v>
@@ -3090,13 +3013,13 @@
     </row>
     <row r="37" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E37" s="9" t="b">
         <v>0</v>
@@ -3108,7 +3031,7 @@
         <v>52</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>38</v>
@@ -3128,13 +3051,13 @@
     </row>
     <row r="38" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E38" s="9" t="b">
         <v>0</v>
@@ -3146,7 +3069,7 @@
         <v>52</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>38</v>
@@ -3166,13 +3089,13 @@
     </row>
     <row r="39" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E39" s="9" t="b">
         <v>0</v>
@@ -3184,7 +3107,7 @@
         <v>52</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>38</v>
@@ -3204,13 +3127,13 @@
     </row>
     <row r="40" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E40" s="9" t="b">
         <v>0</v>
@@ -3222,7 +3145,7 @@
         <v>52</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>38</v>
@@ -3242,13 +3165,13 @@
     </row>
     <row r="41" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E41" s="9" t="b">
         <v>0</v>
@@ -3260,7 +3183,7 @@
         <v>52</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>38</v>
@@ -3284,13 +3207,13 @@
     </row>
     <row r="43" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="9" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="E43" s="9" t="b">
         <f>FALSE()</f>
@@ -3329,7 +3252,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E44" s="9" t="b">
         <f t="shared" ref="E44:E55" si="0">FALSE()</f>
@@ -3339,10 +3262,10 @@
         <v>10</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>38</v>
@@ -3368,7 +3291,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E45" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3378,10 +3301,10 @@
         <v>10</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>38</v>
@@ -3407,7 +3330,7 @@
         <v>46</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E46" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3446,7 +3369,7 @@
         <v>51</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E47" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3485,7 +3408,7 @@
         <v>55</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E48" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3495,7 +3418,7 @@
         <v>10</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>56</v>
@@ -3524,7 +3447,7 @@
         <v>58</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E49" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3563,7 +3486,7 @@
         <v>63</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E50" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3605,7 +3528,7 @@
         <v>67</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E51" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3644,7 +3567,7 @@
         <v>71</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E52" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3677,13 +3600,13 @@
     </row>
     <row r="53" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E53" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3702,10 +3625,10 @@
         <v>38</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="N53" s="12" t="s">
         <v>79</v>
@@ -3716,13 +3639,13 @@
     </row>
     <row r="54" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E54" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3741,10 +3664,10 @@
         <v>38</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="N54" s="12" t="s">
         <v>79</v>
@@ -3755,13 +3678,13 @@
     </row>
     <row r="55" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E55" s="9" t="b">
         <f t="shared" si="0"/>
@@ -3780,10 +3703,10 @@
         <v>38</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="N55" s="12" t="s">
         <v>79</v>
@@ -3800,7 +3723,7 @@
         <v>74</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E56" s="9" t="b">
         <f>TRUE()</f>
@@ -3839,7 +3762,7 @@
         <v>76</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E57" s="9" t="b">
         <f>TRUE()</f>
@@ -3878,7 +3801,7 @@
         <v>78</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E58" s="9" t="b">
         <f>TRUE()</f>
@@ -3911,13 +3834,13 @@
     </row>
     <row r="59" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E59" s="9" t="b">
         <f>TRUE()</f>
@@ -3936,7 +3859,7 @@
         <v>58</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="M59" s="12" t="s">
         <v>79</v>
@@ -3950,13 +3873,13 @@
     </row>
     <row r="60" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E60" s="9" t="b">
         <f>TRUE()</f>
@@ -3975,10 +3898,10 @@
         <v>58</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="N60" s="12" t="s">
         <v>79</v>
@@ -3989,13 +3912,13 @@
     </row>
     <row r="61" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E61" s="9" t="b">
         <f>TRUE()</f>
@@ -4014,10 +3937,10 @@
         <v>58</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="N61" s="12" t="s">
         <v>79</v>
@@ -4028,13 +3951,13 @@
     </row>
     <row r="62" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E62" s="9" t="b">
         <f>TRUE()</f>
@@ -4053,10 +3976,10 @@
         <v>58</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="N62" s="12" t="s">
         <v>79</v>
@@ -4073,7 +3996,7 @@
         <v>81</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E63" s="9" t="b">
         <f>FALSE()</f>
@@ -4112,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E64" s="9" t="b">
         <f>FALSE()</f>
@@ -4151,14 +4074,14 @@
         <v>85</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E65" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="G65" s="9">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>52</v>
@@ -4167,13 +4090,16 @@
         <v>86</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N65" s="12" t="s">
         <v>41</v>
@@ -4184,26 +4110,26 @@
     </row>
     <row r="66" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="9" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E66" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="G66" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>63</v>
@@ -4212,10 +4138,10 @@
         <v>65</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N66" s="12" t="s">
         <v>41</v>
@@ -4226,38 +4152,35 @@
     </row>
     <row r="67" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E67" s="9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f t="shared" ref="E67:E74" si="1">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G67" s="9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>288</v>
+        <v>68</v>
       </c>
       <c r="I67" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L67" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J67" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="M67" s="12" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N67" s="12" t="s">
         <v>41</v>
@@ -4268,16 +4191,16 @@
     </row>
     <row r="68" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="D68" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E68" s="9" t="b">
-        <f t="shared" ref="E68:E75" si="1">TRUE()</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G68" s="9">
@@ -4293,10 +4216,10 @@
         <v>58</v>
       </c>
       <c r="L68" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M68" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="M68" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="N68" s="12" t="s">
         <v>41</v>
@@ -4313,7 +4236,7 @@
         <v>96</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E69" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4352,7 +4275,7 @@
         <v>99</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E70" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4391,7 +4314,7 @@
         <v>102</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E71" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4430,7 +4353,7 @@
         <v>105</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E72" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4469,7 +4392,7 @@
         <v>108</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E73" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4508,7 +4431,7 @@
         <v>111</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E74" s="9" t="b">
         <f t="shared" si="1"/>
@@ -4540,75 +4463,36 @@
       </c>
     </row>
     <row r="75" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E75" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G75" s="9">
-        <v>100</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M75" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="N75" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O75" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-    </row>
-    <row r="77" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="E77" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="10">
         <v>4</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M77" s="12" t="s">
         <v>40</v>
@@ -4620,33 +4504,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="E78" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="10">
         <v>4</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M78" s="12" t="s">
         <v>40</v>
@@ -4658,33 +4542,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="E79" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="10">
         <v>4</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>122</v>
+        <v>249</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M79" s="12" t="s">
         <v>40</v>
@@ -4696,33 +4580,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="E80" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="10">
         <v>4</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M80" s="12" t="s">
         <v>40</v>
@@ -4734,33 +4618,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="E81" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="10">
         <v>4</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M81" s="12" t="s">
         <v>40</v>
@@ -4772,27 +4656,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="E82" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="10">
         <v>4</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>38</v>
@@ -4810,27 +4694,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="9" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="E83" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="10">
         <v>4</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>132</v>
+        <v>248</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>38</v>
@@ -4848,27 +4732,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="E84" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="10">
         <v>4</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="J84" s="9" t="s">
         <v>38</v>
@@ -4886,27 +4770,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="E85" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="10">
         <v>4</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>38</v>
@@ -4924,27 +4808,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="E86" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="10">
         <v>4</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>38</v>
@@ -4962,449 +4846,407 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E87" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" s="9">
-        <v>4</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L87" s="9" t="s">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B88" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" s="10">
+        <v>4</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M88" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N88" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O88" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B89" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" s="10">
+        <v>4</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B90" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" s="10">
+        <v>4</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M90" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N90" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O90" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B91" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="10">
+        <v>4</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N91" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O91" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B92" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" s="10">
+        <v>4</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M92" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N92" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B93" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E93" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" s="10">
+        <v>4</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L93" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M87" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N87" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O87" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E88" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G88" s="9">
-        <v>4</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J88" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L88" s="9" t="s">
+      <c r="M93" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N93" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B94" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E94" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" s="10">
+        <v>4</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L94" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M88" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N88" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O88" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="9" t="s">
+      <c r="M94" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N94" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O94" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B95" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E95" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" s="10">
+        <v>4</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M95" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N95" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O95" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B96" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E96" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" s="10">
+        <v>4</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M96" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N96" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O96" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B97" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E97" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" s="10">
+        <v>4</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N97" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B99" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E89" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" s="9">
-        <v>4</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L89" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M89" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N89" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O89" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E90" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" s="9">
-        <v>4</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J90" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L90" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M90" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N90" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O90" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E91" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" s="9">
-        <v>4</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="J91" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L91" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M91" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N91" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O91" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-    </row>
-    <row r="93" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E93" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" s="9">
-        <v>4</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J93" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L93" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M93" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N93" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O93" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E94" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G94" s="9">
-        <v>4</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L94" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M94" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N94" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O94" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E95" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" s="9">
-        <v>4</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M95" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N95" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O95" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E96" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G96" s="9">
-        <v>4</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L96" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M96" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N96" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O96" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E97" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G97" s="9">
-        <v>4</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L97" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M97" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N97" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O97" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E98" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G98" s="9">
-        <v>4</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L98" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M98" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N98" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O98" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="E99" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G99" s="10">
         <v>4</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>38</v>
@@ -5422,27 +5264,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="9" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E100" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="10">
         <v>4</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>38</v>
@@ -5460,27 +5302,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>197</v>
+        <v>309</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E101" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="10">
         <v>4</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>38</v>
@@ -5498,27 +5340,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E102" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G102" s="10">
         <v>4</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>38</v>
@@ -5536,27 +5378,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E103" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G103" s="9">
+      <c r="G103" s="10">
         <v>4</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>38</v>
@@ -5574,33 +5416,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="9" t="s">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="E104" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G104" s="10">
         <v>4</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>40</v>
@@ -5612,33 +5454,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="9" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="E105" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G105" s="9">
+      <c r="G105" s="10">
         <v>4</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c r="J105" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M105" s="12" t="s">
         <v>40</v>
@@ -5650,33 +5492,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="9" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="E106" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G106" s="9">
+      <c r="G106" s="10">
         <v>4</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>146</v>
+        <v>272</v>
       </c>
       <c r="J106" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M106" s="12" t="s">
         <v>40</v>
@@ -5688,33 +5530,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="9" t="s">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="E107" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="G107" s="9">
+      <c r="G107" s="10">
         <v>4</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="J107" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M107" s="12" t="s">
         <v>40</v>
@@ -5726,53 +5568,53 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E109" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G109" s="10">
-        <v>4</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="J109" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L109" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M109" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N109" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O109" s="9" t="s">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B108" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E108" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" s="10">
+        <v>4</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M108" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N108" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O108" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E110" s="9" t="b">
         <v>0</v>
@@ -5784,7 +5626,7 @@
         <v>52</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>38</v>
@@ -5804,13 +5646,13 @@
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="9" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E111" s="9" t="b">
         <v>0</v>
@@ -5822,7 +5664,7 @@
         <v>52</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="J111" s="9" t="s">
         <v>38</v>
@@ -5842,13 +5684,13 @@
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E112" s="9" t="b">
         <v>0</v>
@@ -5860,7 +5702,7 @@
         <v>52</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="J112" s="9" t="s">
         <v>38</v>
@@ -5880,13 +5722,13 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E113" s="9" t="b">
         <v>0</v>
@@ -5898,7 +5740,7 @@
         <v>52</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="J113" s="9" t="s">
         <v>38</v>
@@ -5918,13 +5760,13 @@
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="9" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>309</v>
+        <v>143</v>
       </c>
       <c r="E114" s="9" t="b">
         <v>0</v>
@@ -5936,13 +5778,13 @@
         <v>52</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J114" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M114" s="12" t="s">
         <v>40</v>
@@ -5956,13 +5798,13 @@
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" s="9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>302</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="E115" s="9" t="b">
         <v>0</v>
@@ -5974,7 +5816,7 @@
         <v>52</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="J115" s="9" t="s">
         <v>38</v>
@@ -5994,13 +5836,13 @@
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C116" s="9" t="s">
-        <v>304</v>
-      </c>
       <c r="D116" s="9" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="E116" s="9" t="b">
         <v>0</v>
@@ -6012,7 +5854,7 @@
         <v>52</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="J116" s="9" t="s">
         <v>38</v>
@@ -6032,13 +5874,13 @@
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="9" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="E117" s="9" t="b">
         <v>0</v>
@@ -6050,7 +5892,7 @@
         <v>52</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="J117" s="9" t="s">
         <v>38</v>
@@ -6070,13 +5912,13 @@
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="9" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="E118" s="9" t="b">
         <v>0</v>
@@ -6088,7 +5930,7 @@
         <v>52</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="J118" s="9" t="s">
         <v>38</v>
@@ -6106,53 +5948,53 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B120" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E120" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G120" s="10">
-        <v>4</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L120" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M120" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N120" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O120" s="9" t="s">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B119" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" s="10">
+        <v>4</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M119" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N119" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O119" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B121" s="9" t="s">
-        <v>318</v>
+      <c r="B121" s="13" t="s">
+        <v>327</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E121" s="9" t="b">
         <v>0</v>
@@ -6161,14 +6003,15 @@
         <v>4</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="J121" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="K121" s="9"/>
       <c r="L121" s="9" t="s">
         <v>82</v>
       </c>
@@ -6183,14 +6026,14 @@
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B122" s="9" t="s">
-        <v>320</v>
+      <c r="B122" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E122" s="9" t="b">
         <v>0</v>
@@ -6199,14 +6042,15 @@
         <v>4</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="J122" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="K122" s="9"/>
       <c r="L122" s="9" t="s">
         <v>82</v>
       </c>
@@ -6221,14 +6065,14 @@
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B123" s="9" t="s">
-        <v>322</v>
+      <c r="B123" s="13" t="s">
+        <v>329</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E123" s="9" t="b">
         <v>0</v>
@@ -6237,14 +6081,15 @@
         <v>4</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="J123" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="K123" s="9"/>
       <c r="L123" s="9" t="s">
         <v>82</v>
       </c>
@@ -6259,14 +6104,14 @@
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B124" s="9" t="s">
-        <v>324</v>
+      <c r="B124" s="13" t="s">
+        <v>330</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E124" s="9" t="b">
         <v>0</v>
@@ -6275,14 +6120,15 @@
         <v>4</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="J124" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="K124" s="9"/>
       <c r="L124" s="9" t="s">
         <v>82</v>
       </c>
@@ -6297,14 +6143,14 @@
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B125" s="9" t="s">
-        <v>326</v>
+      <c r="B125" s="13" t="s">
+        <v>335</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="E125" s="9" t="b">
         <v>0</v>
@@ -6313,14 +6159,15 @@
         <v>4</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="J125" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="K125" s="9"/>
       <c r="L125" s="9" t="s">
         <v>39</v>
       </c>
@@ -6335,14 +6182,14 @@
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B126" s="9" t="s">
-        <v>327</v>
+      <c r="B126" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="E126" s="9" t="b">
         <v>0</v>
@@ -6351,14 +6198,15 @@
         <v>4</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="J126" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="K126" s="9"/>
       <c r="L126" s="9" t="s">
         <v>39</v>
       </c>
@@ -6373,14 +6221,14 @@
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B127" s="9" t="s">
-        <v>328</v>
+      <c r="B127" s="13" t="s">
+        <v>339</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="E127" s="9" t="b">
         <v>0</v>
@@ -6389,14 +6237,15 @@
         <v>4</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="J127" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="K127" s="9"/>
       <c r="L127" s="9" t="s">
         <v>39</v>
       </c>
@@ -6411,14 +6260,14 @@
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B128" s="9" t="s">
-        <v>329</v>
+      <c r="B128" s="13" t="s">
+        <v>341</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="E128" s="9" t="b">
         <v>0</v>
@@ -6427,14 +6276,15 @@
         <v>4</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="J128" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="K128" s="9"/>
       <c r="L128" s="9" t="s">
         <v>39</v>
       </c>
@@ -6445,804 +6295,6 @@
         <v>41</v>
       </c>
       <c r="O128" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B129" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E129" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G129" s="10">
-        <v>4</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I129" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="J129" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L129" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M129" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N129" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O129" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B131" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E131" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G131" s="10">
-        <v>4</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="J131" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L131" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M131" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N131" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O131" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B132" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E132" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G132" s="10">
-        <v>4</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I132" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="J132" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L132" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M132" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N132" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O132" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B133" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E133" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G133" s="10">
-        <v>4</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="J133" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L133" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M133" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N133" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O133" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B134" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E134" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G134" s="10">
-        <v>4</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I134" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="J134" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L134" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M134" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N134" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O134" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B135" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E135" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G135" s="10">
-        <v>4</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I135" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="J135" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L135" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M135" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N135" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O135" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B136" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E136" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G136" s="10">
-        <v>4</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I136" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="J136" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L136" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M136" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N136" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O136" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B137" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E137" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G137" s="10">
-        <v>4</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I137" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="J137" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L137" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M137" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N137" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O137" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B138" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E138" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G138" s="10">
-        <v>4</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I138" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="J138" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L138" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M138" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N138" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O138" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B139" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E139" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G139" s="10">
-        <v>4</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="J139" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L139" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M139" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N139" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O139" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B140" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E140" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G140" s="10">
-        <v>4</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I140" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="J140" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L140" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M140" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N140" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O140" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B142" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E142" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G142" s="10">
-        <v>4</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I142" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="J142" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L142" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M142" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N142" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O142" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B143" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E143" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G143" s="10">
-        <v>4</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I143" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="J143" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L143" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M143" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N143" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O143" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B144" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E144" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G144" s="10">
-        <v>4</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I144" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="J144" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L144" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M144" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N144" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O144" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B145" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E145" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G145" s="10">
-        <v>4</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L145" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M145" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N145" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O145" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B146" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E146" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G146" s="10">
-        <v>4</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I146" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="J146" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L146" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M146" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N146" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O146" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B147" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E147" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G147" s="10">
-        <v>4</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I147" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="J147" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L147" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M147" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N147" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O147" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B148" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E148" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G148" s="10">
-        <v>4</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I148" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="J148" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L148" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M148" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N148" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O148" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B149" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E149" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G149" s="10">
-        <v>4</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I149" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="J149" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L149" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M149" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N149" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O149" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B150" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E150" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G150" s="10">
-        <v>4</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I150" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="J150" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L150" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M150" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N150" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O150" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B151" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E151" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G151" s="10">
-        <v>4</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I151" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="J151" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L151" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M151" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N151" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O151" s="9" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE5230-859D-47A1-A6B6-BC20FA236000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7439AF-CCF9-41B7-B6D1-D524D050E993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="351">
   <si>
     <t>##var</t>
   </si>
@@ -1163,19 +1163,33 @@
     <t>赛季4无限模式-NoAR</t>
   </si>
   <si>
-    <t>TowerDefenseCfg_Season2_Infinite;3;0;0;0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season3_Infinite;3;0;0;0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Season4_Infinite;3;0;0;0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Season1_Infinite;12;0;0;0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge1_AR</t>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge1_NoAR</t>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge2_AR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelTutorial_Challenge2_NoAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Infinite;12;0;0;0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Infinite;12;0;0;0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Infinite;12;0;0;0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1682,10 +1696,10 @@
   <dimension ref="A1:O128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="E111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I125" sqref="I125"/>
+      <selection pane="bottomRight" activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2108,7 +2122,10 @@
         <v>184</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>39</v>
@@ -2346,7 +2363,10 @@
         <v>224</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>39</v>
@@ -2454,6 +2474,9 @@
       <c r="E22" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="F22" s="9" t="s">
+        <v>345</v>
+      </c>
       <c r="G22" s="9">
         <v>4</v>
       </c>
@@ -2492,6 +2515,9 @@
       <c r="E23" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="F23" s="9" t="s">
+        <v>347</v>
+      </c>
       <c r="G23" s="9">
         <v>4</v>
       </c>
@@ -2834,6 +2860,9 @@
       <c r="E32" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="F32" s="9" t="s">
+        <v>344</v>
+      </c>
       <c r="G32" s="9">
         <v>4</v>
       </c>
@@ -2872,6 +2901,9 @@
       <c r="E33" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="F33" s="9" t="s">
+        <v>346</v>
+      </c>
       <c r="G33" s="9">
         <v>4</v>
       </c>
@@ -6006,7 +6038,7 @@
         <v>225</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J121" s="9" t="s">
         <v>38</v>
@@ -6045,7 +6077,7 @@
         <v>225</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J122" s="9" t="s">
         <v>38</v>
@@ -6084,7 +6116,7 @@
         <v>225</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J123" s="9" t="s">
         <v>38</v>
@@ -6123,7 +6155,7 @@
         <v>225</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="J124" s="9" t="s">
         <v>38</v>
@@ -6162,7 +6194,7 @@
         <v>225</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J125" s="9" t="s">
         <v>38</v>
@@ -6201,7 +6233,7 @@
         <v>225</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J126" s="9" t="s">
         <v>38</v>
@@ -6240,7 +6272,7 @@
         <v>225</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J127" s="9" t="s">
         <v>38</v>
@@ -6279,7 +6311,7 @@
         <v>225</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="J128" s="9" t="s">
         <v>38</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/GamePlayBattleLevelCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7439AF-CCF9-41B7-B6D1-D524D050E993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84D96C0-EA77-4B2E-B59F-CB6B8EBDB484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="404">
   <si>
     <t>##var</t>
   </si>
@@ -665,22 +665,6 @@
   </si>
   <si>
     <t>挑战关卡6(NoAR)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战关卡7(NoAR)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战关卡8(NoAR)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战关卡9(NoAR)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战关卡10(NoAR)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1190,6 +1174,180 @@
   </si>
   <si>
     <t>TowerDefenseCfg_Season4_Infinite;12;0;0;0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge11</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge12</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge13</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge14</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge15</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge16</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge17</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge18</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge19</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge20</t>
+  </si>
+  <si>
+    <t>挑战关卡11</t>
+  </si>
+  <si>
+    <t>挑战关卡12</t>
+  </si>
+  <si>
+    <t>挑战关卡13</t>
+  </si>
+  <si>
+    <t>挑战关卡14</t>
+  </si>
+  <si>
+    <t>挑战关卡15</t>
+  </si>
+  <si>
+    <t>挑战关卡16</t>
+  </si>
+  <si>
+    <t>挑战关卡17</t>
+  </si>
+  <si>
+    <t>挑战关卡18</t>
+  </si>
+  <si>
+    <t>挑战关卡19</t>
+  </si>
+  <si>
+    <t>挑战关卡20</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge11</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge12</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge13</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge14</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge15</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge16</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge17</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge18</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge19</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Ar_Challenge20</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge11</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge12</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge13</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge14</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge15</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge16</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge17</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge18</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge19</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_Challenge20</t>
+  </si>
+  <si>
+    <t>挑战关卡7(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡8(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡9(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡10(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡11(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡12(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡13(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡14(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡15(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡16(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡17(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡18(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡19(NoAR)</t>
+  </si>
+  <si>
+    <t>挑战关卡20(NoAR)</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevel_MapShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapShow</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1693,13 +1851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O128"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I130" sqref="I130"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1739,10 +1897,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>5</v>
@@ -1809,7 +1967,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
@@ -1873,7 +2031,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -1960,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>187</v>
@@ -1999,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>184</v>
@@ -2022,13 +2180,13 @@
     </row>
     <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E9" s="9" t="b">
         <f>FALSE()</f>
@@ -2077,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>187</v>
@@ -2116,7 +2274,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>184</v>
@@ -2146,13 +2304,13 @@
     </row>
     <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E13" s="9" t="b">
         <f>FALSE()</f>
@@ -2162,10 +2320,10 @@
         <v>4</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>38</v>
@@ -2185,13 +2343,13 @@
     </row>
     <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E14" s="9" t="b">
         <f>FALSE()</f>
@@ -2201,10 +2359,10 @@
         <v>4</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>38</v>
@@ -2224,13 +2382,13 @@
     </row>
     <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E15" s="9" t="b">
         <f>FALSE()</f>
@@ -2240,10 +2398,10 @@
         <v>6</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>38</v>
@@ -2263,13 +2421,13 @@
     </row>
     <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E16" s="9" t="b">
         <f>FALSE()</f>
@@ -2279,10 +2437,10 @@
         <v>4</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>38</v>
@@ -2302,13 +2460,13 @@
     </row>
     <row r="17" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E17" s="9" t="b">
         <f>FALSE()</f>
@@ -2318,10 +2476,10 @@
         <v>4</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>38</v>
@@ -2341,13 +2499,13 @@
     </row>
     <row r="18" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E18" s="9" t="b">
         <f>FALSE()</f>
@@ -2357,10 +2515,10 @@
         <v>6</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>63</v>
@@ -2387,10 +2545,10 @@
     </row>
     <row r="20" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>144</v>
@@ -2402,10 +2560,10 @@
         <v>4</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>38</v>
@@ -2440,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>188</v>
@@ -2463,34 +2621,32 @@
     </row>
     <row r="22" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>146</v>
+        <v>401</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>194</v>
+        <v>402</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="E22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>345</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G22" s="9">
         <v>4</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>39</v>
+        <v>403</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>40</v>
@@ -2503,52 +2659,17 @@
       </c>
     </row>
     <row r="23" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="G23" s="9">
-        <v>4</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="C23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>144</v>
@@ -2556,6 +2677,9 @@
       <c r="E24" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="F24" s="9" t="s">
+        <v>341</v>
+      </c>
       <c r="G24" s="9">
         <v>4</v>
       </c>
@@ -2563,7 +2687,7 @@
         <v>52</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>38</v>
@@ -2583,10 +2707,10 @@
     </row>
     <row r="25" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>144</v>
@@ -2594,6 +2718,9 @@
       <c r="E25" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="F25" s="9" t="s">
+        <v>343</v>
+      </c>
       <c r="G25" s="9">
         <v>4</v>
       </c>
@@ -2601,7 +2728,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>38</v>
@@ -2621,10 +2748,10 @@
     </row>
     <row r="26" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>144</v>
@@ -2639,7 +2766,7 @@
         <v>52</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>38</v>
@@ -2659,10 +2786,10 @@
     </row>
     <row r="27" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>144</v>
@@ -2677,7 +2804,7 @@
         <v>52</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>38</v>
@@ -2697,10 +2824,10 @@
     </row>
     <row r="28" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>144</v>
@@ -2715,7 +2842,7 @@
         <v>52</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>38</v>
@@ -2735,10 +2862,10 @@
     </row>
     <row r="29" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>144</v>
@@ -2753,7 +2880,7 @@
         <v>52</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>38</v>
@@ -2773,10 +2900,10 @@
     </row>
     <row r="30" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>202</v>
+        <v>387</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>144</v>
@@ -2791,7 +2918,7 @@
         <v>52</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>38</v>
@@ -2811,10 +2938,10 @@
     </row>
     <row r="31" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>203</v>
+        <v>388</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>144</v>
@@ -2829,7 +2956,7 @@
         <v>52</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>38</v>
@@ -2849,20 +2976,17 @@
     </row>
     <row r="32" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>156</v>
+        <v>389</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E32" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>344</v>
-      </c>
       <c r="G32" s="9">
         <v>4</v>
       </c>
@@ -2870,13 +2994,13 @@
         <v>52</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>40</v>
@@ -2890,20 +3014,17 @@
     </row>
     <row r="33" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E33" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>346</v>
-      </c>
       <c r="G33" s="9">
         <v>4</v>
       </c>
@@ -2911,13 +3032,13 @@
         <v>52</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>40</v>
@@ -2931,13 +3052,13 @@
     </row>
     <row r="34" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>159</v>
+        <v>377</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>114</v>
+        <v>391</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E34" s="9" t="b">
         <v>0</v>
@@ -2949,13 +3070,13 @@
         <v>52</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>153</v>
+        <v>347</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M34" s="12" t="s">
         <v>40</v>
@@ -2969,13 +3090,13 @@
     </row>
     <row r="35" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>160</v>
+        <v>378</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>115</v>
+        <v>392</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E35" s="9" t="b">
         <v>0</v>
@@ -2987,13 +3108,13 @@
         <v>52</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>154</v>
+        <v>348</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M35" s="12" t="s">
         <v>40</v>
@@ -3007,13 +3128,13 @@
     </row>
     <row r="36" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>161</v>
+        <v>379</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>116</v>
+        <v>393</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E36" s="9" t="b">
         <v>0</v>
@@ -3025,13 +3146,13 @@
         <v>52</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>155</v>
+        <v>349</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M36" s="12" t="s">
         <v>40</v>
@@ -3045,13 +3166,13 @@
     </row>
     <row r="37" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
-        <v>179</v>
+        <v>380</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>169</v>
+        <v>394</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E37" s="9" t="b">
         <v>0</v>
@@ -3063,13 +3184,13 @@
         <v>52</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>174</v>
+        <v>350</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M37" s="12" t="s">
         <v>40</v>
@@ -3083,13 +3204,13 @@
     </row>
     <row r="38" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E38" s="9" t="b">
         <v>0</v>
@@ -3101,13 +3222,13 @@
         <v>52</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M38" s="12" t="s">
         <v>40</v>
@@ -3121,13 +3242,13 @@
     </row>
     <row r="39" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
-        <v>181</v>
+        <v>382</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>171</v>
+        <v>396</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E39" s="9" t="b">
         <v>0</v>
@@ -3139,13 +3260,13 @@
         <v>52</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>176</v>
+        <v>352</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M39" s="12" t="s">
         <v>40</v>
@@ -3159,13 +3280,13 @@
     </row>
     <row r="40" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
-        <v>182</v>
+        <v>383</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>172</v>
+        <v>397</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E40" s="9" t="b">
         <v>0</v>
@@ -3177,13 +3298,13 @@
         <v>52</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>177</v>
+        <v>353</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M40" s="12" t="s">
         <v>40</v>
@@ -3197,13 +3318,13 @@
     </row>
     <row r="41" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
-        <v>183</v>
+        <v>384</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>173</v>
+        <v>398</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E41" s="9" t="b">
         <v>0</v>
@@ -3215,13 +3336,13 @@
         <v>52</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>178</v>
+        <v>354</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M41" s="12" t="s">
         <v>40</v>
@@ -3234,21 +3355,54 @@
       </c>
     </row>
     <row r="42" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
+      <c r="B42" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
+        <v>4</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="9" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>162</v>
+        <v>400</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E43" s="9" t="b">
-        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="G43" s="9">
@@ -3258,7 +3412,7 @@
         <v>52</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>38</v>
@@ -3277,72 +3431,39 @@
       </c>
     </row>
     <row r="44" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="9" t="b">
-        <f t="shared" ref="E44:E55" si="0">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="9">
-        <v>10</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O44" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
     </row>
     <row r="45" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E45" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="G45" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M45" s="12" t="s">
         <v>40</v>
@@ -3356,35 +3477,37 @@
     </row>
     <row r="46" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E46" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>342</v>
       </c>
       <c r="G46" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N46" s="12" t="s">
         <v>41</v>
@@ -3395,32 +3518,31 @@
     </row>
     <row r="47" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E47" s="9" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G47" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M47" s="12" t="s">
         <v>40</v>
@@ -3434,32 +3556,31 @@
     </row>
     <row r="48" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E48" s="9" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G48" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M48" s="12" t="s">
         <v>40</v>
@@ -3473,35 +3594,34 @@
     </row>
     <row r="49" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E49" s="9" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G49" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N49" s="12" t="s">
         <v>41</v>
@@ -3512,38 +3632,34 @@
     </row>
     <row r="50" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E50" s="9" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N50" s="12" t="s">
         <v>41</v>
@@ -3554,35 +3670,34 @@
     </row>
     <row r="51" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E51" s="9" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G51" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N51" s="12" t="s">
         <v>41</v>
@@ -3593,32 +3708,31 @@
     </row>
     <row r="52" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E52" s="9" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G52" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M52" s="12" t="s">
         <v>40</v>
@@ -3632,38 +3746,37 @@
     </row>
     <row r="53" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E53" s="9" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G53" s="9">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="O53" s="9" t="s">
         <v>42</v>
@@ -3671,38 +3784,37 @@
     </row>
     <row r="54" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E54" s="9" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G54" s="9">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="O54" s="9" t="s">
         <v>42</v>
@@ -3710,38 +3822,37 @@
     </row>
     <row r="55" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
-        <v>136</v>
+        <v>367</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>135</v>
+        <v>357</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E55" s="9" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G55" s="9">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>72</v>
+        <v>347</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="O55" s="9" t="s">
         <v>42</v>
@@ -3749,1508 +3860,1600 @@
     </row>
     <row r="56" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <v>4</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9">
+        <v>4</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9">
+        <v>4</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N58" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="9">
+        <v>4</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9">
+        <v>4</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9">
+        <v>4</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="9">
+        <v>4</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="9">
+        <v>4</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N63" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="9">
+        <v>4</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+    </row>
+    <row r="66" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="9">
+        <v>4</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="9" t="b">
+        <f t="shared" ref="E67:E78" si="0">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>10</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" s="9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <v>10</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="9">
+        <v>10</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N69" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="9">
+        <v>10</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" s="9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="9">
+        <v>10</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" s="9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="9">
+        <v>10</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N72" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O72" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" s="9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="9">
+        <v>10</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O73" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" s="9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="9">
+        <v>10</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M74" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N74" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O74" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="9">
+        <v>10</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N75" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" s="9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="9">
+        <v>100</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="N76" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O76" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" s="9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="9">
+        <v>100</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="N77" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O77" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" s="9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="9">
+        <v>100</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M78" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N78" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D79" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="9" t="b">
+      <c r="E79" s="9" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G79" s="9">
         <v>100</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H79" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="I79" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J79" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="L79" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="M56" s="12" t="s">
+      <c r="M79" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N56" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="9" t="s">
+      <c r="N79" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D80" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="9" t="b">
+      <c r="E80" s="9" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G80" s="9">
         <v>100</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H80" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="I80" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J57" s="9" t="s">
+      <c r="J80" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="L80" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M57" s="12" t="s">
+      <c r="M80" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N57" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O57" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="9" t="s">
+      <c r="N80" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E58" s="9" t="b">
+      <c r="E81" s="9" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G81" s="9">
         <v>100</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I58" s="9" t="s">
+      <c r="I81" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J58" s="9" t="s">
+      <c r="J81" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="L81" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M58" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N58" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O58" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="9" t="s">
+      <c r="M81" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N81" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E59" s="9" t="b">
+      <c r="E82" s="9" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G82" s="9">
         <v>100</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H82" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I82" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J82" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L82" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="M59" s="12" t="s">
+      <c r="M82" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N59" s="12" t="s">
+      <c r="N82" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="O59" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="9" t="s">
+      <c r="O82" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D83" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="9" t="b">
+      <c r="E83" s="9" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G83" s="9">
         <v>100</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H83" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="I83" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J83" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L60" s="9" t="s">
+      <c r="L83" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="M60" s="12" t="s">
+      <c r="M83" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="N60" s="12" t="s">
+      <c r="N83" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="O60" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="9" t="s">
+      <c r="O83" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D84" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E61" s="9" t="b">
+      <c r="E84" s="9" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G84" s="9">
         <v>100</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H84" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="I84" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="J84" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="L84" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="M61" s="12" t="s">
+      <c r="M84" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="N61" s="12" t="s">
+      <c r="N84" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="O61" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="9" t="s">
+      <c r="O84" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E62" s="9" t="b">
+      <c r="E85" s="9" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G85" s="9">
         <v>100</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H85" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="I85" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="J85" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L62" s="9" t="s">
+      <c r="L85" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="M62" s="12" t="s">
+      <c r="M85" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="N62" s="12" t="s">
+      <c r="N85" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="O62" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="9" t="s">
+      <c r="O85" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E63" s="9" t="b">
+      <c r="E86" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G86" s="9">
         <v>10</v>
       </c>
-      <c r="H63" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I63" s="9" t="s">
+      <c r="H86" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I86" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J63" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L63" s="9" t="s">
+      <c r="J86" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M63" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N63" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O63" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="9" t="s">
+      <c r="M86" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N86" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O86" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D87" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E64" s="9" t="b">
+      <c r="E87" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G87" s="9">
         <v>10</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H87" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="I87" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="J87" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L64" s="9" t="s">
+      <c r="L87" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M64" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N64" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="9" t="s">
+      <c r="M87" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N87" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D88" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="9" t="b">
+      <c r="E88" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G88" s="9">
         <v>100</v>
       </c>
-      <c r="H65" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I65" s="9" t="s">
+      <c r="H88" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I88" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J88" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="K88" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L65" s="9" t="s">
+      <c r="L88" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="M65" s="12" t="s">
+      <c r="M88" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N65" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O65" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="9" t="s">
+      <c r="N88" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O88" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D89" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E66" s="9" t="b">
+      <c r="E89" s="9" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G89" s="9">
         <v>10</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="I66" s="9" t="s">
+      <c r="H89" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I89" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J89" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="K89" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L66" s="9" t="s">
+      <c r="L89" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M66" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N66" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O66" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="9" t="s">
+      <c r="M89" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D90" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="9" t="b">
-        <f t="shared" ref="E67:E74" si="1">TRUE()</f>
+      <c r="E90" s="9" t="b">
+        <f t="shared" ref="E90:E97" si="1">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G90" s="9">
         <v>100</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H90" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I90" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J90" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L67" s="9" t="s">
+      <c r="L90" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M67" s="12" t="s">
+      <c r="M90" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N67" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
+      <c r="N90" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O90" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C91" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D91" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="9" t="b">
+      <c r="E91" s="9" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G91" s="9">
         <v>100</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H91" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="I91" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="J91" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L68" s="9" t="s">
+      <c r="L91" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="M68" s="12" t="s">
+      <c r="M91" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="N68" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="9" t="s">
+      <c r="N91" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O91" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C92" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D92" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E69" s="9" t="b">
+      <c r="E92" s="9" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G92" s="9">
         <v>100</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H92" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="I92" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="J92" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L69" s="9" t="s">
+      <c r="L92" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="M69" s="12" t="s">
+      <c r="M92" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="N69" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="9" t="s">
+      <c r="N92" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D93" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E70" s="9" t="b">
+      <c r="E93" s="9" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G93" s="9">
         <v>100</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H93" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="I93" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="J93" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L70" s="9" t="s">
+      <c r="L93" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="M70" s="12" t="s">
+      <c r="M93" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N70" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O70" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="9" t="s">
+      <c r="N93" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C94" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D94" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="9" t="b">
+      <c r="E94" s="9" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G94" s="9">
         <v>100</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H94" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I94" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J94" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L71" s="9" t="s">
+      <c r="L94" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M71" s="12" t="s">
+      <c r="M94" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N71" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O71" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="9" t="s">
+      <c r="N94" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O94" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C95" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D95" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E72" s="9" t="b">
+      <c r="E95" s="9" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G95" s="9">
         <v>100</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H95" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="I95" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J72" s="9" t="s">
+      <c r="J95" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L72" s="9" t="s">
+      <c r="L95" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="M72" s="12" t="s">
+      <c r="M95" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="N72" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O72" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="9" t="s">
+      <c r="N95" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O95" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C96" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D96" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E73" s="9" t="b">
+      <c r="E96" s="9" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G96" s="9">
         <v>100</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H96" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I96" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J96" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L73" s="9" t="s">
+      <c r="L96" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M73" s="12" t="s">
+      <c r="M96" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N73" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O73" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="9" t="s">
+      <c r="N96" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O96" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C97" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D97" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E74" s="9" t="b">
+      <c r="E97" s="9" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G97" s="9">
         <v>100</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H97" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I97" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J97" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L74" s="9" t="s">
+      <c r="L97" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M74" s="12" t="s">
+      <c r="M97" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="N74" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O74" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B77" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" s="10">
-        <v>4</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M77" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N77" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O77" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E78" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" s="10">
-        <v>4</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L78" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M78" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N78" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O78" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E79" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" s="10">
-        <v>4</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L79" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M79" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N79" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O79" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E80" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" s="10">
-        <v>4</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L80" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M80" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N80" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O80" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E81" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" s="10">
-        <v>4</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L81" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M81" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N81" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E82" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" s="10">
-        <v>4</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L82" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M82" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N82" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O82" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E83" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G83" s="10">
-        <v>4</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M83" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N83" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O83" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E84" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G84" s="10">
-        <v>4</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L84" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M84" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N84" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O84" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E85" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G85" s="10">
-        <v>4</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L85" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M85" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N85" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O85" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E86" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G86" s="10">
-        <v>4</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L86" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M86" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N86" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O86" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E88" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G88" s="10">
-        <v>4</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="J88" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L88" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M88" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N88" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O88" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E89" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" s="10">
-        <v>4</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L89" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M89" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N89" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O89" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E90" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" s="10">
-        <v>4</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="J90" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L90" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M90" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N90" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O90" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E91" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" s="10">
-        <v>4</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J91" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L91" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M91" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N91" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O91" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E92" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" s="10">
-        <v>4</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M92" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N92" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O92" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B93" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E93" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" s="10">
-        <v>4</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="J93" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L93" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M93" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N93" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O93" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B94" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E94" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G94" s="10">
-        <v>4</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L94" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M94" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N94" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O94" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E95" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" s="10">
-        <v>4</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L95" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M95" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N95" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O95" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E96" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G96" s="10">
-        <v>4</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L96" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M96" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N96" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O96" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E97" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G97" s="10">
-        <v>4</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L97" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M97" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="N97" s="12" t="s">
         <v>41</v>
       </c>
@@ -5258,50 +5461,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E99" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" s="10">
-        <v>4</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="J99" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L99" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M99" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N99" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O99" s="9" t="s">
-        <v>42</v>
-      </c>
+    <row r="98" spans="2:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="9" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>143</v>
@@ -5316,7 +5485,7 @@
         <v>52</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>38</v>
@@ -5336,10 +5505,10 @@
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>143</v>
@@ -5354,7 +5523,7 @@
         <v>52</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>38</v>
@@ -5374,10 +5543,10 @@
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>143</v>
@@ -5392,7 +5561,7 @@
         <v>52</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>38</v>
@@ -5412,10 +5581,10 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>311</v>
+        <v>230</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>143</v>
@@ -5430,7 +5599,7 @@
         <v>52</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>38</v>
@@ -5450,13 +5619,13 @@
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="9" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="E104" s="9" t="b">
         <v>0</v>
@@ -5468,13 +5637,13 @@
         <v>52</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>40</v>
@@ -5488,13 +5657,13 @@
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="9" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E105" s="9" t="b">
         <v>0</v>
@@ -5506,7 +5675,7 @@
         <v>52</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="J105" s="9" t="s">
         <v>38</v>
@@ -5526,13 +5695,13 @@
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="9" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E106" s="9" t="b">
         <v>0</v>
@@ -5544,7 +5713,7 @@
         <v>52</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="J106" s="9" t="s">
         <v>38</v>
@@ -5564,13 +5733,13 @@
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="9" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E107" s="9" t="b">
         <v>0</v>
@@ -5582,7 +5751,7 @@
         <v>52</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="J107" s="9" t="s">
         <v>38</v>
@@ -5602,25 +5771,25 @@
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" s="9" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="D108" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E108" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" s="10">
+        <v>4</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I108" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="E108" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G108" s="10">
-        <v>4</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="J108" s="9" t="s">
         <v>38</v>
@@ -5638,50 +5807,50 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E110" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G110" s="10">
-        <v>4</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="J110" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L110" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M110" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N110" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O110" s="9" t="s">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B109" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" s="10">
+        <v>4</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M109" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N109" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O109" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="9" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>143</v>
@@ -5696,7 +5865,7 @@
         <v>52</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="J111" s="9" t="s">
         <v>38</v>
@@ -5716,10 +5885,10 @@
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="9" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>143</v>
@@ -5734,7 +5903,7 @@
         <v>52</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="J112" s="9" t="s">
         <v>38</v>
@@ -5754,10 +5923,10 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="9" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>143</v>
@@ -5772,7 +5941,7 @@
         <v>52</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="J113" s="9" t="s">
         <v>38</v>
@@ -5792,10 +5961,10 @@
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="9" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>143</v>
@@ -5810,7 +5979,7 @@
         <v>52</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="J114" s="9" t="s">
         <v>38</v>
@@ -5830,13 +5999,13 @@
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" s="9" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="E115" s="9" t="b">
         <v>0</v>
@@ -5848,13 +6017,13 @@
         <v>52</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="J115" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M115" s="12" t="s">
         <v>40</v>
@@ -5868,13 +6037,13 @@
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="9" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E116" s="9" t="b">
         <v>0</v>
@@ -5886,7 +6055,7 @@
         <v>52</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="J116" s="9" t="s">
         <v>38</v>
@@ -5906,13 +6075,13 @@
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="9" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E117" s="9" t="b">
         <v>0</v>
@@ -5924,7 +6093,7 @@
         <v>52</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="J117" s="9" t="s">
         <v>38</v>
@@ -5944,13 +6113,13 @@
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="9" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E118" s="9" t="b">
         <v>0</v>
@@ -5962,7 +6131,7 @@
         <v>52</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="J118" s="9" t="s">
         <v>38</v>
@@ -5982,13 +6151,13 @@
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="9" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E119" s="9" t="b">
         <v>0</v>
@@ -6000,7 +6169,7 @@
         <v>52</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="J119" s="9" t="s">
         <v>38</v>
@@ -6018,51 +6187,50 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B121" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E121" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G121" s="10">
-        <v>4</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="J121" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M121" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N121" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O121" s="9" t="s">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B120" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E120" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" s="10">
+        <v>4</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M120" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N120" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O120" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B122" s="13" t="s">
-        <v>328</v>
+      <c r="B122" s="9" t="s">
+        <v>263</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>143</v>
@@ -6074,15 +6242,14 @@
         <v>4</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="J122" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K122" s="9"/>
       <c r="L122" s="9" t="s">
         <v>82</v>
       </c>
@@ -6097,11 +6264,11 @@
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B123" s="13" t="s">
-        <v>329</v>
+      <c r="B123" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>143</v>
@@ -6113,15 +6280,14 @@
         <v>4</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="J123" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K123" s="9"/>
       <c r="L123" s="9" t="s">
         <v>82</v>
       </c>
@@ -6136,11 +6302,11 @@
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B124" s="13" t="s">
-        <v>330</v>
+      <c r="B124" s="9" t="s">
+        <v>267</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>143</v>
@@ -6152,15 +6318,14 @@
         <v>4</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>350</v>
+        <v>268</v>
       </c>
       <c r="J124" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K124" s="9"/>
       <c r="L124" s="9" t="s">
         <v>82</v>
       </c>
@@ -6175,14 +6340,14 @@
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B125" s="13" t="s">
-        <v>335</v>
+      <c r="B125" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="E125" s="9" t="b">
         <v>0</v>
@@ -6191,17 +6356,16 @@
         <v>4</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>343</v>
+        <v>270</v>
       </c>
       <c r="J125" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K125" s="9"/>
       <c r="L125" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M125" s="12" t="s">
         <v>40</v>
@@ -6214,14 +6378,14 @@
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B126" s="13" t="s">
-        <v>337</v>
+      <c r="B126" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="E126" s="9" t="b">
         <v>0</v>
@@ -6230,17 +6394,16 @@
         <v>4</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="J126" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K126" s="9"/>
       <c r="L126" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="M126" s="12" t="s">
         <v>40</v>
@@ -6253,14 +6416,14 @@
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B127" s="13" t="s">
-        <v>339</v>
+      <c r="B127" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E127" s="9" t="b">
         <v>0</v>
@@ -6269,15 +6432,14 @@
         <v>4</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="J127" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K127" s="9"/>
       <c r="L127" s="9" t="s">
         <v>39</v>
       </c>
@@ -6292,14 +6454,14 @@
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B128" s="13" t="s">
-        <v>341</v>
+      <c r="B128" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E128" s="9" t="b">
         <v>0</v>
@@ -6308,15 +6470,14 @@
         <v>4</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="J128" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K128" s="9"/>
       <c r="L128" s="9" t="s">
         <v>39</v>
       </c>
@@ -6327,6 +6488,812 @@
         <v>41</v>
       </c>
       <c r="O128" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B129" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E129" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" s="10">
+        <v>4</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L129" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M129" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N129" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O129" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B130" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E130" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G130" s="10">
+        <v>4</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L130" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M130" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N130" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O130" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B131" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E131" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" s="10">
+        <v>4</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M131" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N131" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O131" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B133" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G133" s="10">
+        <v>4</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N133" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O133" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B134" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G134" s="10">
+        <v>4</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L134" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M134" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N134" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O134" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B135" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" s="10">
+        <v>4</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L135" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M135" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N135" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O135" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B136" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" s="10">
+        <v>4</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L136" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M136" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N136" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O136" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B137" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" s="10">
+        <v>4</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M137" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N137" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O137" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B138" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" s="10">
+        <v>4</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L138" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M138" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N138" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O138" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B139" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" s="10">
+        <v>4</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M139" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N139" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O139" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B140" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E140" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" s="10">
+        <v>4</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M140" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N140" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O140" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B141" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E141" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" s="10">
+        <v>4</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M141" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N141" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O141" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B142" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E142" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" s="10">
+        <v>4</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M142" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N142" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O142" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B144" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E144" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" s="10">
+        <v>4</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M144" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N144" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O144" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B145" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E145" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" s="10">
+        <v>4</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M145" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N145" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O145" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B146" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E146" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" s="10">
+        <v>4</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M146" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N146" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O146" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B147" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E147" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" s="10">
+        <v>4</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M147" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N147" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O147" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B148" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E148" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" s="10">
+        <v>4</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M148" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N148" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O148" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B149" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E149" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" s="10">
+        <v>4</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M149" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N149" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O149" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B150" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E150" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" s="10">
+        <v>4</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M150" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N150" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O150" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B151" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E151" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" s="10">
+        <v>4</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M151" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N151" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O151" s="9" t="s">
         <v>42</v>
       </c>
     </row>
